--- a/杭电杂项/课程表.xlsx
+++ b/杭电杂项/课程表.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaizyn\Documents\MySmallProjects\杭电杂项\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21536CF3-9DAC-429D-943F-BAD148924BAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="2980" windowWidth="12050" windowHeight="11360" xr2:uid="{6A84E660-F683-43A5-913C-BC610F0EF641}"/>
+    <workbookView xWindow="1236" yWindow="2976" windowWidth="12048" windowHeight="11364"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="162">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -998,11 +997,142 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2021-2022年第1学期                                19185312课表                                专业：计算机科学与技术(人工智能与大数据创新实验班)</t>
+  </si>
+  <si>
+    <t>节次</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>第一二节</t>
+  </si>
+  <si>
+    <t>第三四五节</t>
+  </si>
+  <si>
+    <t>创新实践4/(3-4节)1-17周/下沙 未排地点/徐小良,郑秋华/(2021-2022-1)-S0518784-4/9/34/1_x000D_
+创新实践4/(3-4节)1-17周/下沙 第7教研楼北116B/匡振中,俞俊,张建辉,高飞,朱素果,余宙/(2021-2022-1)-S0518784-6/19/34/1</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>第六七节</t>
+  </si>
+  <si>
+    <t>形势与政策5/6-12周(双)/下沙 第6教研楼北114/赵天鹏,何晨玥/(2021-2022-1)-A6500045-37/0/4/0.25</t>
+  </si>
+  <si>
+    <t>第八九节</t>
+  </si>
+  <si>
+    <t>大学生职业发展与就业指导3/3-11周(单)/下沙 第3教研楼411/何凌帆/(2021-2022-1)-A8400013-28/0/10/0.5</t>
+  </si>
+  <si>
+    <t>晚上</t>
+  </si>
+  <si>
+    <t>第十十一十二节</t>
+  </si>
+  <si>
+    <t>注--内容顺序为：课程&lt;&gt;周次&lt;&gt;地点&lt;&gt;教师&lt;&gt;教学班&lt;&gt;选课人数&lt;&gt;总学时&lt;&gt;学分          本学期2021-09-13正式上课至2022-01-07结束，共17周.                              打印时间：2021-06-19</t>
+  </si>
+  <si>
+    <t>创新实践4
+/(3-4节)1-17周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据基础/1-17周/
+下沙 第6教研楼中101/
+陈洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统（甲）
+/(6-8节)1-17周
+/下沙 第6教研楼北216
+/任彧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统（甲）
+/(6-8节)1-17周
+/下沙 第6教研楼北216
+/任彧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马克思主义基本原理
+/1-17周
+/下沙 第3教研楼101
+/李颖姣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文献检索与论文写作
+/1-9周/
+下沙 第3教研楼101
+/陈婧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络实验
+/1-17周
+/下沙 第3教研楼101
+/徐建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程（甲）
+/(6-8节)1-17周
+/下沙 第6教研楼北414
+/陈婧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络（甲）
+/1-17周
+/下沙 第6教研楼北306
+/徐建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统课程实践
+/(6-8节)1-17周
+/下沙 第7教研楼中2021
+/任彧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1328,7 +1458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1413,6 +1543,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1422,6 +1588,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1431,13 +1633,157 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1449,9 +1795,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1461,217 +1804,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1987,38 +2120,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC062F7B-86BC-4EDB-AC23-72C4327427C3}">
-  <dimension ref="A1:AE83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77:F78"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="20.08203125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="20.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="1"/>
-    <col min="9" max="9" width="4.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
-    <col min="11" max="15" width="20.08203125" style="1" customWidth="1"/>
+    <col min="11" max="15" width="20.109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="8.6640625" style="1"/>
-    <col min="17" max="17" width="4.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.6640625" style="1" customWidth="1"/>
-    <col min="19" max="23" width="20.08203125" style="1" customWidth="1"/>
+    <col min="19" max="23" width="20.109375" style="1" customWidth="1"/>
     <col min="24" max="24" width="8.6640625" style="1"/>
-    <col min="25" max="25" width="4.1640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" style="1" customWidth="1"/>
     <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
-    <col min="27" max="31" width="20.08203125" style="1" customWidth="1"/>
+    <col min="27" max="31" width="20.109375" style="1" customWidth="1"/>
     <col min="32" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:31" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="92"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2034,10 +2167,10 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="93"/>
+      <c r="J1" s="92"/>
       <c r="K1" s="9" t="s">
         <v>1</v>
       </c>
@@ -2053,10 +2186,10 @@
       <c r="O1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="93" t="s">
+      <c r="Q1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="93"/>
+      <c r="R1" s="92"/>
       <c r="S1" s="10" t="s">
         <v>1</v>
       </c>
@@ -2072,10 +2205,10 @@
       <c r="W1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="93" t="s">
+      <c r="Y1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="93"/>
+      <c r="Z1" s="92"/>
       <c r="AA1" s="10" t="s">
         <v>1</v>
       </c>
@@ -2092,8 +2225,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2102,230 +2235,230 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="40" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="68" t="s">
         <v>45</v>
       </c>
       <c r="L2" s="9"/>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="40" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="82"/>
+      <c r="S2" s="68"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="99" t="s">
+      <c r="U2" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="28"/>
-      <c r="W2" s="99" t="s">
+      <c r="V2" s="40"/>
+      <c r="W2" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="40" t="s">
         <v>17</v>
       </c>
       <c r="Z2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="82"/>
+      <c r="AA2" s="68"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="28" t="s">
+      <c r="AC2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-    </row>
-    <row r="3" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+    </row>
+    <row r="3" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="66"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="I3" s="64"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="I3" s="66"/>
       <c r="J3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="65"/>
+      <c r="K3" s="67"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="65"/>
-      <c r="Q3" s="64"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="Q3" s="66"/>
       <c r="R3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="65"/>
+      <c r="S3" s="67"/>
       <c r="T3" s="10"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="99"/>
-      <c r="Y3" s="64"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="93"/>
+      <c r="Y3" s="66"/>
       <c r="Z3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="65"/>
+      <c r="AA3" s="67"/>
       <c r="AB3" s="10"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="65"/>
-    </row>
-    <row r="4" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="67"/>
+    </row>
+    <row r="4" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="66"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="64"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="88" t="s">
+      <c r="L4" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="99" t="s">
+      <c r="O4" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="64"/>
+      <c r="Q4" s="66"/>
       <c r="R4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="T4" s="88" t="s">
+      <c r="T4" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="28" t="s">
+      <c r="U4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="V4" s="28"/>
-      <c r="W4" s="96" t="s">
+      <c r="V4" s="40"/>
+      <c r="W4" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="Y4" s="64"/>
+      <c r="Y4" s="66"/>
       <c r="Z4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="28" t="s">
+      <c r="AA4" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="88" t="s">
+      <c r="AB4" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" s="28" t="s">
+      <c r="AC4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="AD4" s="28" t="s">
+      <c r="AD4" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AE4" s="28" t="s">
+      <c r="AE4" s="40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
+    <row r="5" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="66"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="100"/>
-      <c r="I5" s="64"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="95"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="99"/>
-      <c r="Q5" s="64"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="93"/>
+      <c r="Q5" s="66"/>
       <c r="R5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="97"/>
-      <c r="Y5" s="64"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="90"/>
+      <c r="Y5" s="66"/>
       <c r="Z5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="65"/>
-    </row>
-    <row r="6" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="67"/>
+    </row>
+    <row r="6" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="67"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="65"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="101"/>
-      <c r="I6" s="65"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="94"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="30"/>
+      <c r="K6" s="42"/>
       <c r="L6" s="4"/>
       <c r="M6" s="6"/>
       <c r="N6" s="4"/>
       <c r="O6" s="11"/>
-      <c r="Q6" s="65"/>
+      <c r="Q6" s="67"/>
       <c r="R6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2335,394 +2468,394 @@
       <c r="T6" s="4"/>
       <c r="U6" s="6"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="98"/>
-      <c r="Y6" s="65"/>
+      <c r="W6" s="91"/>
+      <c r="Y6" s="67"/>
       <c r="Z6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" s="30"/>
+      <c r="AA6" s="42"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="11"/>
     </row>
-    <row r="7" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="40" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="88" t="s">
+      <c r="L7" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="88" t="s">
+      <c r="O7" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="28" t="s">
+      <c r="Q7" s="40" t="s">
         <v>18</v>
       </c>
       <c r="R7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="28" t="s">
+      <c r="S7" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="T7" s="88" t="s">
+      <c r="T7" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="28" t="s">
+      <c r="U7" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="V7" s="28" t="s">
+      <c r="V7" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="W7" s="88" t="s">
+      <c r="W7" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="Y7" s="28" t="s">
+      <c r="Y7" s="40" t="s">
         <v>18</v>
       </c>
       <c r="Z7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AA7" s="28" t="s">
+      <c r="AA7" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="AB7" s="88" t="s">
+      <c r="AB7" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="AC7" s="28" t="s">
+      <c r="AC7" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="AD7" s="28" t="s">
+      <c r="AD7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="AE7" s="88" t="s">
+      <c r="AE7" s="87" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+    <row r="8" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="64"/>
-      <c r="I8" s="29"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="88"/>
-      <c r="Q8" s="29"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="87"/>
+      <c r="Q8" s="41"/>
       <c r="R8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="29"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="88"/>
-      <c r="Y8" s="29"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="87"/>
+      <c r="Y8" s="41"/>
       <c r="Z8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="88"/>
-    </row>
-    <row r="9" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="87"/>
+    </row>
+    <row r="9" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="96" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="I9" s="29"/>
+      <c r="G9" s="67"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="28" t="s">
+      <c r="K9" s="42"/>
+      <c r="L9" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="40" t="s">
         <v>63</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="Q9" s="29"/>
+      <c r="Q9" s="41"/>
       <c r="R9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="28" t="s">
+      <c r="S9" s="42"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="V9" s="28" t="s">
+      <c r="V9" s="40" t="s">
         <v>51</v>
       </c>
       <c r="W9" s="4"/>
-      <c r="Y9" s="29"/>
+      <c r="Y9" s="41"/>
       <c r="Z9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="28" t="s">
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="AD9" s="28"/>
+      <c r="AD9" s="40"/>
       <c r="AE9" s="4"/>
     </row>
-    <row r="10" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="8"/>
-      <c r="I10" s="30"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="9"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
       <c r="O10" s="9"/>
-      <c r="Q10" s="30"/>
+      <c r="Q10" s="42"/>
       <c r="R10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
       <c r="W10" s="10"/>
-      <c r="Y10" s="30"/>
+      <c r="Y10" s="42"/>
       <c r="Z10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="AA10" s="10"/>
       <c r="AB10" s="12"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="65"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="67"/>
       <c r="AE10" s="10"/>
     </row>
-    <row r="11" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="40" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="40" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L11" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="96" t="s">
+      <c r="M11" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="28" t="s">
+      <c r="N11" s="40" t="s">
         <v>52</v>
       </c>
       <c r="O11" s="9"/>
-      <c r="Q11" s="28" t="s">
+      <c r="Q11" s="40" t="s">
         <v>19</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S11" s="28" t="s">
+      <c r="S11" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="T11" s="46" t="s">
+      <c r="T11" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="96" t="s">
+      <c r="U11" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="V11" s="28" t="s">
+      <c r="V11" s="40" t="s">
         <v>52</v>
       </c>
       <c r="W11" s="10"/>
-      <c r="Y11" s="28" t="s">
+      <c r="Y11" s="40" t="s">
         <v>19</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA11" s="28" t="s">
+      <c r="AA11" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AB11" s="46" t="s">
+      <c r="AB11" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AC11" s="96" t="s">
+      <c r="AC11" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="AD11" s="28" t="s">
+      <c r="AD11" s="40" t="s">
         <v>52</v>
       </c>
       <c r="AE11" s="10"/>
     </row>
-    <row r="12" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
+    <row r="12" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="64"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="66"/>
       <c r="G12" s="2"/>
-      <c r="I12" s="64"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="64"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="64"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="66"/>
       <c r="O12" s="9"/>
-      <c r="Q12" s="64"/>
+      <c r="Q12" s="66"/>
       <c r="R12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="64"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="64"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="66"/>
       <c r="W12" s="10"/>
-      <c r="Y12" s="64"/>
+      <c r="Y12" s="66"/>
       <c r="Z12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="64"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="66"/>
       <c r="AE12" s="10"/>
     </row>
-    <row r="13" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
+    <row r="13" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="65"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="2"/>
-      <c r="I13" s="65"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="65"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="65"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="9"/>
-      <c r="Q13" s="65"/>
+      <c r="Q13" s="67"/>
       <c r="R13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S13" s="65"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="65"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="67"/>
       <c r="W13" s="10"/>
-      <c r="Y13" s="65"/>
+      <c r="Y13" s="67"/>
       <c r="Z13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="65"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="67"/>
       <c r="AE13" s="10"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15" s="93" t="s">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="93"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="14" t="s">
         <v>1</v>
       </c>
@@ -2738,10 +2871,10 @@
       <c r="G15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="55"/>
+      <c r="J15" s="59"/>
       <c r="K15" s="14" t="s">
         <v>1</v>
       </c>
@@ -2757,10 +2890,10 @@
       <c r="O15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="54" t="s">
+      <c r="Q15" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="R15" s="55"/>
+      <c r="R15" s="59"/>
       <c r="S15" s="14" t="s">
         <v>1</v>
       </c>
@@ -2776,10 +2909,10 @@
       <c r="W15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Y15" s="93" t="s">
+      <c r="Y15" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="Z15" s="93"/>
+      <c r="Z15" s="92"/>
       <c r="AA15" s="14" t="s">
         <v>1</v>
       </c>
@@ -2796,645 +2929,645 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="72" t="s">
+      <c r="F16" s="40"/>
+      <c r="G16" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="40" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="70" t="s">
+      <c r="K16" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="82"/>
-      <c r="M16" s="90" t="s">
+      <c r="L16" s="68"/>
+      <c r="M16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="28"/>
-      <c r="O16" s="72" t="s">
+      <c r="N16" s="40"/>
+      <c r="O16" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="Q16" s="28" t="s">
+      <c r="Q16" s="40" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="S16" s="70" t="s">
+      <c r="S16" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="T16" s="82"/>
-      <c r="U16" s="90" t="s">
+      <c r="T16" s="68"/>
+      <c r="U16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="V16" s="28"/>
-      <c r="W16" s="72" t="s">
+      <c r="V16" s="40"/>
+      <c r="W16" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="Y16" s="28" t="s">
+      <c r="Y16" s="40" t="s">
         <v>17</v>
       </c>
       <c r="Z16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AA16" s="70" t="s">
+      <c r="AA16" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="AB16" s="82" t="s">
+      <c r="AB16" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="AC16" s="90" t="s">
+      <c r="AC16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="72" t="s">
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="84" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
+    <row r="17" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="66"/>
       <c r="B17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="71"/>
-      <c r="I17" s="29"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="73"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="71"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="73"/>
-      <c r="Q17" s="29"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="79"/>
+      <c r="Q17" s="41"/>
       <c r="R17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="S17" s="71"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="73"/>
-      <c r="Y17" s="64"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="100"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="79"/>
+      <c r="Y17" s="66"/>
       <c r="Z17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="71"/>
-    </row>
-    <row r="18" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="73"/>
+    </row>
+    <row r="18" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="66"/>
       <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="90" t="s">
+      <c r="F18" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="91" t="s">
+      <c r="G18" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="29"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="90" t="s">
+      <c r="K18" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="90" t="s">
+      <c r="N18" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="O18" s="44" t="s">
+      <c r="O18" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="Q18" s="29"/>
+      <c r="Q18" s="41"/>
       <c r="R18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S18" s="90" t="s">
+      <c r="S18" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="T18" s="28" t="s">
+      <c r="T18" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="U18" s="28" t="s">
+      <c r="U18" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="V18" s="90" t="s">
+      <c r="V18" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="W18" s="44" t="s">
+      <c r="W18" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="Y18" s="64"/>
+      <c r="Y18" s="66"/>
       <c r="Z18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AA18" s="34" t="s">
+      <c r="AA18" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="AB18" s="88" t="s">
+      <c r="AB18" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="AC18" s="28" t="s">
+      <c r="AC18" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="AD18" s="90" t="s">
+      <c r="AD18" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="AE18" s="91" t="s">
+      <c r="AE18" s="97" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
+    <row r="19" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="66"/>
       <c r="B19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="92"/>
-      <c r="I19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="98"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="95"/>
-      <c r="Q19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="101"/>
+      <c r="Q19" s="41"/>
       <c r="R19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="S19" s="35"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="95"/>
-      <c r="Y19" s="64"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="100"/>
+      <c r="W19" s="101"/>
+      <c r="Y19" s="66"/>
       <c r="Z19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="92"/>
-    </row>
-    <row r="20" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="98"/>
+    </row>
+    <row r="20" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="67"/>
       <c r="B20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="36"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
       <c r="G20" s="11"/>
-      <c r="I20" s="30"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="36"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="4"/>
       <c r="M20" s="6"/>
       <c r="N20" s="4"/>
       <c r="O20" s="11"/>
-      <c r="Q20" s="30"/>
+      <c r="Q20" s="42"/>
       <c r="R20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S20" s="36"/>
+      <c r="S20" s="30"/>
       <c r="T20" s="4"/>
       <c r="U20" s="6"/>
       <c r="V20" s="4"/>
       <c r="W20" s="11"/>
-      <c r="Y20" s="65"/>
+      <c r="Y20" s="67"/>
       <c r="Z20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AA20" s="36"/>
+      <c r="AA20" s="30"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="11"/>
     </row>
-    <row r="21" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="88" t="s">
+      <c r="G21" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="40" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="46" t="s">
+      <c r="K21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="44" t="s">
+      <c r="L21" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="28" t="s">
+      <c r="N21" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="O21" s="28" t="s">
+      <c r="O21" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="28" t="s">
+      <c r="Q21" s="40" t="s">
         <v>18</v>
       </c>
       <c r="R21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S21" s="46" t="s">
+      <c r="S21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="44" t="s">
+      <c r="T21" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="U21" s="28" t="s">
+      <c r="U21" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="V21" s="28" t="s">
+      <c r="V21" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="W21" s="28" t="s">
+      <c r="W21" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="Y21" s="28" t="s">
+      <c r="Y21" s="40" t="s">
         <v>18</v>
       </c>
       <c r="Z21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AA21" s="72" t="s">
+      <c r="AA21" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="AB21" s="67" t="s">
+      <c r="AB21" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="AC21" s="28" t="s">
+      <c r="AC21" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="AD21" s="28" t="s">
+      <c r="AD21" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="AE21" s="88" t="s">
+      <c r="AE21" s="87" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+    <row r="22" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
       <c r="B22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="88"/>
-      <c r="I22" s="29"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="87"/>
+      <c r="I22" s="41"/>
       <c r="J22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="80"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="Q22" s="29"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="Q22" s="41"/>
       <c r="R22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="S22" s="80"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="Y22" s="29"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="Y22" s="41"/>
       <c r="Z22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AA22" s="80"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="65"/>
-      <c r="AE22" s="88"/>
-    </row>
-    <row r="23" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="99"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="87"/>
+    </row>
+    <row r="23" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
       <c r="B23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="28" t="s">
+      <c r="C23" s="79"/>
+      <c r="D23" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="4"/>
-      <c r="I23" s="29"/>
+      <c r="I23" s="41"/>
       <c r="J23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="73"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="28" t="s">
+      <c r="K23" s="79"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="N23" s="28"/>
+      <c r="N23" s="40"/>
       <c r="O23" s="4"/>
-      <c r="Q23" s="29"/>
+      <c r="Q23" s="41"/>
       <c r="R23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="S23" s="73"/>
-      <c r="T23" s="28" t="s">
+      <c r="S23" s="79"/>
+      <c r="T23" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="U23" s="28" t="s">
+      <c r="U23" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="V23" s="28"/>
+      <c r="V23" s="40"/>
       <c r="W23" s="4"/>
-      <c r="Y23" s="29"/>
+      <c r="Y23" s="41"/>
       <c r="Z23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="28" t="s">
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AC23" s="28" t="s">
+      <c r="AC23" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="28"/>
+      <c r="AD23" s="40"/>
       <c r="AE23" s="4"/>
     </row>
-    <row r="24" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
       <c r="B24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="14"/>
-      <c r="I24" s="30"/>
+      <c r="I24" s="42"/>
       <c r="J24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="14"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
       <c r="O24" s="14"/>
-      <c r="Q24" s="30"/>
+      <c r="Q24" s="42"/>
       <c r="R24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="S24" s="14"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
       <c r="W24" s="14"/>
-      <c r="Y24" s="30"/>
+      <c r="Y24" s="42"/>
       <c r="Z24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AA24" s="14"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="65"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
       <c r="AE24" s="14"/>
     </row>
-    <row r="25" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="40" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="40" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="28" t="s">
+      <c r="K25" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="46" t="s">
+      <c r="L25" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="75" t="s">
+      <c r="M25" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="28" t="s">
+      <c r="N25" s="40" t="s">
         <v>77</v>
       </c>
       <c r="O25" s="14"/>
-      <c r="Q25" s="28" t="s">
+      <c r="Q25" s="40" t="s">
         <v>19</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S25" s="28" t="s">
+      <c r="S25" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="T25" s="46" t="s">
+      <c r="T25" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="U25" s="75" t="s">
+      <c r="U25" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="V25" s="28" t="s">
+      <c r="V25" s="40" t="s">
         <v>44</v>
       </c>
       <c r="W25" s="14"/>
-      <c r="Y25" s="28" t="s">
+      <c r="Y25" s="40" t="s">
         <v>19</v>
       </c>
       <c r="Z25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA25" s="28" t="s">
+      <c r="AA25" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="AB25" s="46" t="s">
+      <c r="AB25" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="AC25" s="75" t="s">
+      <c r="AC25" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="AD25" s="28" t="s">
+      <c r="AD25" s="40" t="s">
         <v>65</v>
       </c>
       <c r="AE25" s="14"/>
     </row>
-    <row r="26" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
+    <row r="26" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="66"/>
       <c r="B26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="64"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="14"/>
-      <c r="I26" s="29"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="29"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="41"/>
       <c r="O26" s="14"/>
-      <c r="Q26" s="29"/>
+      <c r="Q26" s="41"/>
       <c r="R26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S26" s="29"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="29"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="41"/>
       <c r="W26" s="14"/>
-      <c r="Y26" s="64"/>
+      <c r="Y26" s="66"/>
       <c r="Z26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="76"/>
-      <c r="AD26" s="64"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="88"/>
+      <c r="AD26" s="66"/>
       <c r="AE26" s="14"/>
     </row>
-    <row r="27" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65"/>
+    <row r="27" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="67"/>
       <c r="B27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="65"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="14"/>
-      <c r="I27" s="30"/>
+      <c r="I27" s="42"/>
       <c r="J27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="30"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="42"/>
       <c r="O27" s="14"/>
-      <c r="Q27" s="30"/>
+      <c r="Q27" s="42"/>
       <c r="R27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="S27" s="30"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="30"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="42"/>
       <c r="W27" s="14"/>
-      <c r="Y27" s="65"/>
+      <c r="Y27" s="67"/>
       <c r="Z27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="65"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="67"/>
       <c r="AE27" s="14"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A29" s="54" t="s">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="55"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="15" t="s">
         <v>1</v>
       </c>
@@ -3450,10 +3583,10 @@
       <c r="G29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="54" t="s">
+      <c r="I29" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="J29" s="55"/>
+      <c r="J29" s="59"/>
       <c r="K29" s="14" t="s">
         <v>1</v>
       </c>
@@ -3469,10 +3602,10 @@
       <c r="O29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="54" t="s">
+      <c r="Q29" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="R29" s="55"/>
+      <c r="R29" s="59"/>
       <c r="S29" s="15" t="s">
         <v>1</v>
       </c>
@@ -3488,10 +3621,10 @@
       <c r="W29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="54" t="s">
+      <c r="Y29" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="Z29" s="55"/>
+      <c r="Z29" s="59"/>
       <c r="AA29" s="15" t="s">
         <v>1</v>
       </c>
@@ -3508,633 +3641,633 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="58" t="s">
+      <c r="C30" s="72"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="72"/>
-      <c r="I30" s="28" t="s">
+      <c r="G30" s="84"/>
+      <c r="I30" s="40" t="s">
         <v>17</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="70"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="87" t="s">
+      <c r="K30" s="72"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="N30" s="83" t="s">
+      <c r="N30" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="O30" s="72"/>
-      <c r="Q30" s="28" t="s">
+      <c r="O30" s="84"/>
+      <c r="Q30" s="40" t="s">
         <v>17</v>
       </c>
       <c r="R30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S30" s="70"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="58" t="s">
+      <c r="S30" s="72"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="V30" s="48" t="s">
+      <c r="V30" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="W30" s="72"/>
-      <c r="Y30" s="28" t="s">
+      <c r="W30" s="84"/>
+      <c r="Y30" s="40" t="s">
         <v>17</v>
       </c>
       <c r="Z30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="82"/>
-      <c r="AC30" s="58" t="s">
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="AD30" s="48" t="s">
+      <c r="AD30" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AE30" s="72"/>
-    </row>
-    <row r="31" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
+      <c r="AE30" s="84"/>
+    </row>
+    <row r="31" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
       <c r="B31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="73"/>
-      <c r="I31" s="29"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="79"/>
+      <c r="I31" s="41"/>
       <c r="J31" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="71"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="73"/>
-      <c r="Q31" s="29"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="79"/>
+      <c r="Q31" s="41"/>
       <c r="R31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S31" s="71"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="73"/>
-      <c r="Y31" s="29"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="79"/>
+      <c r="Y31" s="41"/>
       <c r="Z31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="73"/>
-    </row>
-    <row r="32" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="67"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="79"/>
+    </row>
+    <row r="32" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="58" t="s">
+      <c r="F32" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="81" t="s">
+      <c r="G32" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="29"/>
+      <c r="I32" s="41"/>
       <c r="J32" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="75" t="s">
+      <c r="K32" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="L32" s="28" t="s">
+      <c r="L32" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="M32" s="28" t="s">
+      <c r="M32" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="N32" s="87" t="s">
+      <c r="N32" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="81" t="s">
+      <c r="O32" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="41"/>
       <c r="R32" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="S32" s="58" t="s">
+      <c r="S32" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="T32" s="28" t="s">
+      <c r="T32" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="U32" s="28" t="s">
+      <c r="U32" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="V32" s="58" t="s">
+      <c r="V32" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="W32" s="81" t="s">
+      <c r="W32" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="Y32" s="29"/>
+      <c r="Y32" s="41"/>
       <c r="Z32" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AA32" s="58" t="s">
+      <c r="AA32" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="AB32" s="68" t="s">
+      <c r="AB32" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="AC32" s="28" t="s">
+      <c r="AC32" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="AD32" s="58" t="s">
+      <c r="AD32" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="AE32" s="81" t="s">
+      <c r="AE32" s="71" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+    <row r="33" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
       <c r="B33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="45"/>
-      <c r="I33" s="29"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="39"/>
+      <c r="I33" s="41"/>
       <c r="J33" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="76"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="45"/>
-      <c r="Q33" s="29"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="39"/>
+      <c r="Q33" s="41"/>
       <c r="R33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="S33" s="60"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="45"/>
-      <c r="Y33" s="29"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="39"/>
+      <c r="Y33" s="41"/>
       <c r="Z33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AA33" s="60"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="45"/>
-    </row>
-    <row r="34" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="AA33" s="63"/>
+      <c r="AB33" s="77"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="39"/>
+    </row>
+    <row r="34" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
       <c r="B34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="59"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="4"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4"/>
       <c r="G34" s="11"/>
-      <c r="I34" s="30"/>
+      <c r="I34" s="42"/>
       <c r="J34" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K34" s="77"/>
+      <c r="K34" s="83"/>
       <c r="L34" s="4"/>
       <c r="M34" s="6"/>
       <c r="N34" s="4"/>
       <c r="O34" s="11"/>
-      <c r="Q34" s="30"/>
+      <c r="Q34" s="42"/>
       <c r="R34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="S34" s="59"/>
+      <c r="S34" s="64"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="30"/>
+      <c r="U34" s="42"/>
       <c r="V34" s="4"/>
       <c r="W34" s="11"/>
-      <c r="Y34" s="30"/>
+      <c r="Y34" s="42"/>
       <c r="Z34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AA34" s="59"/>
+      <c r="AA34" s="64"/>
       <c r="AB34" s="4"/>
-      <c r="AC34" s="30"/>
+      <c r="AC34" s="42"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="11"/>
     </row>
-    <row r="35" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+    <row r="35" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="79" t="s">
+      <c r="E35" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="48" t="s">
+      <c r="G35" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="28" t="s">
+      <c r="I35" s="40" t="s">
         <v>18</v>
       </c>
       <c r="J35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="46" t="s">
+      <c r="K35" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="L35" s="67" t="s">
+      <c r="L35" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="M35" s="28" t="s">
+      <c r="M35" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N35" s="85" t="s">
+      <c r="N35" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="O35" s="83" t="s">
+      <c r="O35" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="Q35" s="28" t="s">
+      <c r="Q35" s="40" t="s">
         <v>18</v>
       </c>
       <c r="R35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S35" s="46" t="s">
+      <c r="S35" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="T35" s="67" t="s">
+      <c r="T35" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="U35" s="79" t="s">
+      <c r="U35" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="V35" s="46" t="s">
+      <c r="V35" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="W35" s="48" t="s">
+      <c r="W35" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="Y35" s="28" t="s">
+      <c r="Y35" s="40" t="s">
         <v>18</v>
       </c>
       <c r="Z35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AA35" s="46" t="s">
+      <c r="AA35" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AB35" s="67" t="s">
+      <c r="AB35" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="AC35" s="79" t="s">
+      <c r="AC35" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="AD35" s="46" t="s">
+      <c r="AD35" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="AE35" s="48" t="s">
+      <c r="AE35" s="47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
+    <row r="36" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
       <c r="B36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="49"/>
-      <c r="I36" s="29"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="48"/>
+      <c r="I36" s="41"/>
       <c r="J36" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="80"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="84"/>
-      <c r="Q36" s="29"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="103"/>
+      <c r="Q36" s="41"/>
       <c r="R36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S36" s="80"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="49"/>
-      <c r="Y36" s="29"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="80"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="48"/>
+      <c r="Y36" s="41"/>
       <c r="Z36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AA36" s="80"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="65"/>
-      <c r="AE36" s="49"/>
-    </row>
-    <row r="37" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
+      <c r="AA36" s="78"/>
+      <c r="AB36" s="80"/>
+      <c r="AC36" s="64"/>
+      <c r="AD36" s="67"/>
+      <c r="AE36" s="48"/>
+    </row>
+    <row r="37" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
       <c r="B37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="79" t="s">
+      <c r="C37" s="79"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="68" t="s">
+      <c r="F37" s="76" t="s">
         <v>83</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="I37" s="29"/>
+      <c r="I37" s="41"/>
       <c r="J37" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="73"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="28" t="s">
+      <c r="K37" s="79"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="N37" s="28" t="s">
+      <c r="N37" s="40" t="s">
         <v>83</v>
       </c>
       <c r="O37" s="4"/>
-      <c r="Q37" s="29"/>
+      <c r="Q37" s="41"/>
       <c r="R37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S37" s="73"/>
-      <c r="T37" s="67"/>
-      <c r="U37" s="79" t="s">
+      <c r="S37" s="79"/>
+      <c r="T37" s="80"/>
+      <c r="U37" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="V37" s="68" t="s">
+      <c r="V37" s="76" t="s">
         <v>87</v>
       </c>
       <c r="W37" s="4"/>
-      <c r="Y37" s="29"/>
+      <c r="Y37" s="41"/>
       <c r="Z37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AA37" s="73"/>
-      <c r="AB37" s="67"/>
-      <c r="AC37" s="79" t="s">
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="80"/>
+      <c r="AC37" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="AD37" s="68"/>
+      <c r="AD37" s="76"/>
       <c r="AE37" s="4"/>
     </row>
-    <row r="38" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
+    <row r="38" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
       <c r="B38" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="69"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="77"/>
       <c r="G38" s="15"/>
-      <c r="I38" s="30"/>
+      <c r="I38" s="42"/>
       <c r="J38" s="14" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
       <c r="O38" s="14"/>
-      <c r="Q38" s="30"/>
+      <c r="Q38" s="42"/>
       <c r="R38" s="15" t="s">
         <v>14</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="12"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="69"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="77"/>
       <c r="W38" s="15"/>
-      <c r="Y38" s="30"/>
+      <c r="Y38" s="42"/>
       <c r="Z38" s="15" t="s">
         <v>14</v>
       </c>
       <c r="AA38" s="15"/>
       <c r="AB38" s="12"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="69"/>
+      <c r="AC38" s="64"/>
+      <c r="AD38" s="77"/>
       <c r="AE38" s="15"/>
     </row>
-    <row r="39" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+    <row r="39" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="75" t="s">
+      <c r="E39" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="40" t="s">
         <v>65</v>
       </c>
       <c r="G39" s="15"/>
-      <c r="I39" s="28" t="s">
+      <c r="I39" s="40" t="s">
         <v>19</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="28" t="s">
+      <c r="K39" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L39" s="46" t="s">
+      <c r="L39" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="M39" s="75" t="s">
+      <c r="M39" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="N39" s="28" t="s">
+      <c r="N39" s="40" t="s">
         <v>77</v>
       </c>
       <c r="O39" s="14"/>
-      <c r="Q39" s="28" t="s">
+      <c r="Q39" s="40" t="s">
         <v>19</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S39" s="28" t="s">
+      <c r="S39" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="T39" s="46" t="s">
+      <c r="T39" s="43" t="s">
         <v>54</v>
       </c>
       <c r="U39" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="V39" s="28" t="s">
+      <c r="V39" s="40" t="s">
         <v>44</v>
       </c>
       <c r="W39" s="15"/>
-      <c r="Y39" s="28" t="s">
+      <c r="Y39" s="40" t="s">
         <v>19</v>
       </c>
       <c r="Z39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA39" s="28" t="s">
+      <c r="AA39" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AB39" s="46" t="s">
+      <c r="AB39" s="43" t="s">
         <v>90</v>
       </c>
       <c r="AC39" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="AD39" s="46" t="s">
+      <c r="AD39" s="43" t="s">
         <v>54</v>
       </c>
       <c r="AE39" s="15"/>
     </row>
-    <row r="40" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
+    <row r="40" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
       <c r="B40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="64"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="66"/>
       <c r="G40" s="15"/>
-      <c r="I40" s="29"/>
+      <c r="I40" s="41"/>
       <c r="J40" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="29"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="29"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="41"/>
       <c r="O40" s="14"/>
-      <c r="Q40" s="29"/>
+      <c r="Q40" s="41"/>
       <c r="R40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S40" s="64"/>
-      <c r="T40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="44"/>
       <c r="U40" s="74"/>
-      <c r="V40" s="64"/>
+      <c r="V40" s="66"/>
       <c r="W40" s="15"/>
-      <c r="Y40" s="29"/>
+      <c r="Y40" s="41"/>
       <c r="Z40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AA40" s="64"/>
-      <c r="AB40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="44"/>
       <c r="AC40" s="74"/>
-      <c r="AD40" s="66"/>
+      <c r="AD40" s="44"/>
       <c r="AE40" s="15"/>
     </row>
-    <row r="41" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
+    <row r="41" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
       <c r="B41" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="65"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="67"/>
       <c r="G41" s="15"/>
-      <c r="I41" s="30"/>
+      <c r="I41" s="42"/>
       <c r="J41" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K41" s="30"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="30"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="42"/>
       <c r="O41" s="14"/>
-      <c r="Q41" s="30"/>
+      <c r="Q41" s="42"/>
       <c r="R41" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S41" s="65"/>
-      <c r="T41" s="47"/>
+      <c r="S41" s="67"/>
+      <c r="T41" s="45"/>
       <c r="U41" s="19"/>
-      <c r="V41" s="65"/>
+      <c r="V41" s="67"/>
       <c r="W41" s="15"/>
-      <c r="Y41" s="30"/>
+      <c r="Y41" s="42"/>
       <c r="Z41" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AA41" s="65"/>
-      <c r="AB41" s="47"/>
+      <c r="AA41" s="67"/>
+      <c r="AB41" s="45"/>
       <c r="AC41" s="19"/>
-      <c r="AD41" s="47"/>
+      <c r="AD41" s="45"/>
       <c r="AE41" s="15"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="54" t="s">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="55"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="15" t="s">
         <v>1</v>
       </c>
@@ -4150,10 +4283,10 @@
       <c r="G43" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="54" t="s">
+      <c r="I43" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="55"/>
+      <c r="J43" s="59"/>
       <c r="K43" s="15" t="s">
         <v>1</v>
       </c>
@@ -4169,10 +4302,10 @@
       <c r="O43" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Q43" s="54" t="s">
+      <c r="Q43" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="R43" s="55"/>
+      <c r="R43" s="59"/>
       <c r="S43" s="18" t="s">
         <v>1</v>
       </c>
@@ -4188,10 +4321,10 @@
       <c r="W43" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Y43" s="54" t="s">
+      <c r="Y43" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="Z43" s="55"/>
+      <c r="Z43" s="59"/>
       <c r="AA43" s="18" t="s">
         <v>1</v>
       </c>
@@ -4208,641 +4341,641 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
+    <row r="44" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="70"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="58" t="s">
+      <c r="C44" s="72"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="72"/>
-      <c r="I44" s="28" t="s">
+      <c r="G44" s="84"/>
+      <c r="I44" s="40" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="70"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="58" t="s">
+      <c r="K44" s="72"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="N44" s="48" t="s">
+      <c r="N44" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="O44" s="72"/>
-      <c r="Q44" s="28" t="s">
+      <c r="O44" s="84"/>
+      <c r="Q44" s="40" t="s">
         <v>17</v>
       </c>
       <c r="R44" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="S44" s="70"/>
-      <c r="T44" s="82"/>
-      <c r="U44" s="58" t="s">
+      <c r="S44" s="72"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="V44" s="48" t="s">
+      <c r="V44" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="W44" s="72"/>
-      <c r="Y44" s="28" t="s">
+      <c r="W44" s="84"/>
+      <c r="Y44" s="40" t="s">
         <v>17</v>
       </c>
       <c r="Z44" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AA44" s="70"/>
-      <c r="AB44" s="44" t="s">
+      <c r="AA44" s="72"/>
+      <c r="AB44" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AC44" s="58" t="s">
+      <c r="AC44" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="AD44" s="48" t="s">
+      <c r="AD44" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AE44" s="72"/>
-    </row>
-    <row r="45" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
+      <c r="AE44" s="84"/>
+    </row>
+    <row r="45" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
       <c r="B45" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="73"/>
-      <c r="I45" s="29"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="79"/>
+      <c r="I45" s="41"/>
       <c r="J45" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K45" s="71"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="73"/>
-      <c r="Q45" s="29"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="79"/>
+      <c r="Q45" s="41"/>
       <c r="R45" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="S45" s="71"/>
-      <c r="T45" s="65"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="49"/>
-      <c r="W45" s="73"/>
-      <c r="Y45" s="29"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="64"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="79"/>
+      <c r="Y45" s="41"/>
       <c r="Z45" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AA45" s="71"/>
-      <c r="AB45" s="45"/>
-      <c r="AC45" s="59"/>
-      <c r="AD45" s="49"/>
-      <c r="AE45" s="73"/>
-    </row>
-    <row r="46" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
+      <c r="AA45" s="73"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="64"/>
+      <c r="AD45" s="48"/>
+      <c r="AE45" s="79"/>
+    </row>
+    <row r="46" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="68" t="s">
+      <c r="D46" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="88" t="s">
+      <c r="E46" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F46" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="81" t="s">
+      <c r="G46" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="I46" s="29"/>
+      <c r="I46" s="41"/>
       <c r="J46" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="58" t="s">
+      <c r="K46" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="L46" s="28" t="s">
+      <c r="L46" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="M46" s="28" t="s">
+      <c r="M46" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="N46" s="58" t="s">
+      <c r="N46" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="O46" s="81" t="s">
+      <c r="O46" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="Q46" s="29"/>
+      <c r="Q46" s="41"/>
       <c r="R46" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S46" s="58" t="s">
+      <c r="S46" s="62" t="s">
         <v>47</v>
       </c>
       <c r="T46" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="U46" s="28" t="s">
+      <c r="U46" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="V46" s="58" t="s">
+      <c r="V46" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="W46" s="44" t="s">
+      <c r="W46" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="Y46" s="29"/>
+      <c r="Y46" s="41"/>
       <c r="Z46" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AA46" s="58" t="s">
+      <c r="AA46" s="62" t="s">
         <v>47</v>
       </c>
       <c r="AB46" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="AC46" s="28" t="s">
+      <c r="AC46" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="AD46" s="58" t="s">
+      <c r="AD46" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="AE46" s="81" t="s">
+      <c r="AE46" s="71" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
+    <row r="47" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
       <c r="B47" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="45"/>
-      <c r="I47" s="29"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="39"/>
+      <c r="I47" s="41"/>
       <c r="J47" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="60"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="45"/>
-      <c r="Q47" s="29"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="39"/>
+      <c r="Q47" s="41"/>
       <c r="R47" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="S47" s="60"/>
+      <c r="S47" s="63"/>
       <c r="T47" s="74"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="59"/>
-      <c r="W47" s="45"/>
-      <c r="Y47" s="29"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="64"/>
+      <c r="W47" s="39"/>
+      <c r="Y47" s="41"/>
       <c r="Z47" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AA47" s="60"/>
+      <c r="AA47" s="63"/>
       <c r="AB47" s="74"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="59"/>
-      <c r="AE47" s="45"/>
-    </row>
-    <row r="48" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
+      <c r="AC47" s="41"/>
+      <c r="AD47" s="64"/>
+      <c r="AE47" s="39"/>
+    </row>
+    <row r="48" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
       <c r="B48" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="59"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="4"/>
       <c r="E48" s="12"/>
       <c r="F48" s="4"/>
       <c r="G48" s="11"/>
-      <c r="I48" s="30"/>
+      <c r="I48" s="42"/>
       <c r="J48" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="59"/>
+      <c r="K48" s="64"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="30"/>
+      <c r="M48" s="42"/>
       <c r="N48" s="4"/>
       <c r="O48" s="11"/>
-      <c r="Q48" s="30"/>
+      <c r="Q48" s="42"/>
       <c r="R48" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="S48" s="59"/>
+      <c r="S48" s="64"/>
       <c r="T48" s="4"/>
-      <c r="U48" s="30"/>
+      <c r="U48" s="42"/>
       <c r="V48" s="4"/>
       <c r="W48" s="11"/>
-      <c r="Y48" s="30"/>
+      <c r="Y48" s="42"/>
       <c r="Z48" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AA48" s="59"/>
+      <c r="AA48" s="64"/>
       <c r="AB48" s="4"/>
-      <c r="AC48" s="30"/>
+      <c r="AC48" s="42"/>
       <c r="AD48" s="4"/>
       <c r="AE48" s="11"/>
     </row>
-    <row r="49" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+    <row r="49" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="67" t="s">
+      <c r="D49" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="79" t="s">
+      <c r="E49" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="G49" s="48" t="s">
+      <c r="G49" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="I49" s="28" t="s">
+      <c r="I49" s="40" t="s">
         <v>18</v>
       </c>
       <c r="J49" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="46" t="s">
+      <c r="K49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="L49" s="67" t="s">
+      <c r="L49" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="M49" s="79" t="s">
+      <c r="M49" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="N49" s="46" t="s">
+      <c r="N49" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="O49" s="48" t="s">
+      <c r="O49" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="Q49" s="28" t="s">
+      <c r="Q49" s="40" t="s">
         <v>18</v>
       </c>
       <c r="R49" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="S49" s="46" t="s">
+      <c r="S49" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="T49" s="44" t="s">
+      <c r="T49" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="U49" s="79" t="s">
+      <c r="U49" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="V49" s="46" t="s">
+      <c r="V49" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="W49" s="48" t="s">
+      <c r="W49" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="Y49" s="28" t="s">
+      <c r="Y49" s="40" t="s">
         <v>18</v>
       </c>
       <c r="Z49" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AA49" s="44" t="s">
+      <c r="AA49" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AB49" s="78" t="s">
+      <c r="AB49" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="AC49" s="79" t="s">
+      <c r="AC49" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="AD49" s="46" t="s">
+      <c r="AD49" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="AE49" s="48" t="s">
+      <c r="AE49" s="47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
+    <row r="50" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
       <c r="B50" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="80"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="49"/>
-      <c r="I50" s="29"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="48"/>
+      <c r="I50" s="41"/>
       <c r="J50" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K50" s="80"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="65"/>
-      <c r="O50" s="49"/>
-      <c r="Q50" s="29"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="48"/>
+      <c r="Q50" s="41"/>
       <c r="R50" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S50" s="80"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="59"/>
-      <c r="V50" s="65"/>
-      <c r="W50" s="49"/>
-      <c r="Y50" s="29"/>
+      <c r="S50" s="78"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="64"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="48"/>
+      <c r="Y50" s="41"/>
       <c r="Z50" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AA50" s="45"/>
-      <c r="AB50" s="78"/>
-      <c r="AC50" s="59"/>
-      <c r="AD50" s="65"/>
-      <c r="AE50" s="49"/>
-    </row>
-    <row r="51" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="69"/>
+      <c r="AC50" s="64"/>
+      <c r="AD50" s="67"/>
+      <c r="AE50" s="48"/>
+    </row>
+    <row r="51" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
       <c r="B51" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="73"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="79" t="s">
+      <c r="C51" s="79"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="102" t="s">
+      <c r="F51" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="68" t="s">
+      <c r="G51" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="I51" s="29"/>
+      <c r="I51" s="41"/>
       <c r="J51" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="73"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="79" t="s">
+      <c r="K51" s="79"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N51" s="68" t="s">
+      <c r="N51" s="76" t="s">
         <v>96</v>
       </c>
       <c r="O51" s="4"/>
-      <c r="Q51" s="29"/>
+      <c r="Q51" s="41"/>
       <c r="R51" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S51" s="73"/>
-      <c r="T51" s="81" t="s">
+      <c r="S51" s="79"/>
+      <c r="T51" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="U51" s="79" t="s">
+      <c r="U51" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="V51" s="68" t="s">
+      <c r="V51" s="76" t="s">
         <v>96</v>
       </c>
       <c r="W51" s="4"/>
-      <c r="Y51" s="29"/>
+      <c r="Y51" s="41"/>
       <c r="Z51" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AA51" s="68" t="s">
+      <c r="AA51" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="AB51" s="78"/>
-      <c r="AC51" s="79" t="s">
+      <c r="AB51" s="69"/>
+      <c r="AC51" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="AD51" s="68" t="s">
+      <c r="AD51" s="76" t="s">
         <v>96</v>
       </c>
       <c r="AE51" s="4"/>
     </row>
-    <row r="52" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="30"/>
+    <row r="52" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
       <c r="B52" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="69"/>
-      <c r="I52" s="30"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="77"/>
+      <c r="I52" s="42"/>
       <c r="J52" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K52" s="15"/>
       <c r="L52" s="12"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="69"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="77"/>
       <c r="O52" s="15"/>
-      <c r="Q52" s="30"/>
+      <c r="Q52" s="42"/>
       <c r="R52" s="18" t="s">
         <v>14</v>
       </c>
       <c r="S52" s="18"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="59"/>
-      <c r="V52" s="69"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="64"/>
+      <c r="V52" s="77"/>
       <c r="W52" s="18"/>
-      <c r="Y52" s="30"/>
+      <c r="Y52" s="42"/>
       <c r="Z52" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AA52" s="69"/>
+      <c r="AA52" s="77"/>
       <c r="AB52" s="22"/>
-      <c r="AC52" s="59"/>
-      <c r="AD52" s="69"/>
+      <c r="AC52" s="64"/>
+      <c r="AD52" s="77"/>
       <c r="AE52" s="18"/>
     </row>
-    <row r="53" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
+    <row r="53" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="46" t="s">
+      <c r="C53" s="40"/>
+      <c r="D53" s="43" t="s">
         <v>54</v>
       </c>
       <c r="E53" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="F53" s="40" t="s">
         <v>44</v>
       </c>
       <c r="G53" s="15"/>
-      <c r="I53" s="28" t="s">
+      <c r="I53" s="40" t="s">
         <v>19</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="28" t="s">
+      <c r="K53" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="L53" s="46" t="s">
+      <c r="L53" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="M53" s="75" t="s">
+      <c r="M53" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="N53" s="28" t="s">
+      <c r="N53" s="40" t="s">
         <v>44</v>
       </c>
       <c r="O53" s="15"/>
-      <c r="Q53" s="28" t="s">
+      <c r="Q53" s="40" t="s">
         <v>19</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S53" s="67" t="s">
+      <c r="S53" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="T53" s="46" t="s">
+      <c r="T53" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="U53" s="75" t="s">
+      <c r="U53" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="V53" s="28" t="s">
+      <c r="V53" s="40" t="s">
         <v>44</v>
       </c>
       <c r="W53" s="18"/>
-      <c r="Y53" s="28" t="s">
+      <c r="Y53" s="40" t="s">
         <v>19</v>
       </c>
       <c r="Z53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA53" s="67" t="s">
+      <c r="AA53" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="AB53" s="46" t="s">
+      <c r="AB53" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AC53" s="75" t="s">
+      <c r="AC53" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="AD53" s="28" t="s">
+      <c r="AD53" s="40" t="s">
         <v>44</v>
       </c>
       <c r="AE53" s="18"/>
     </row>
-    <row r="54" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
+    <row r="54" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
       <c r="B54" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="66"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="44"/>
       <c r="E54" s="74"/>
-      <c r="F54" s="64"/>
+      <c r="F54" s="66"/>
       <c r="G54" s="15"/>
-      <c r="I54" s="29"/>
+      <c r="I54" s="41"/>
       <c r="J54" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K54" s="64"/>
-      <c r="L54" s="66"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="64"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="66"/>
       <c r="O54" s="15"/>
-      <c r="Q54" s="29"/>
+      <c r="Q54" s="41"/>
       <c r="R54" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S54" s="67"/>
-      <c r="T54" s="66"/>
-      <c r="U54" s="76"/>
-      <c r="V54" s="64"/>
+      <c r="S54" s="80"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="88"/>
+      <c r="V54" s="66"/>
       <c r="W54" s="18"/>
-      <c r="Y54" s="29"/>
+      <c r="Y54" s="41"/>
       <c r="Z54" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="66"/>
-      <c r="AC54" s="76"/>
-      <c r="AD54" s="64"/>
+      <c r="AA54" s="80"/>
+      <c r="AB54" s="44"/>
+      <c r="AC54" s="88"/>
+      <c r="AD54" s="66"/>
       <c r="AE54" s="18"/>
     </row>
-    <row r="55" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="30"/>
+    <row r="55" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
       <c r="B55" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="47"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="45"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="65"/>
+      <c r="F55" s="67"/>
       <c r="G55" s="15"/>
-      <c r="I55" s="30"/>
+      <c r="I55" s="42"/>
       <c r="J55" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K55" s="65"/>
-      <c r="L55" s="47"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="45"/>
       <c r="M55" s="19"/>
-      <c r="N55" s="65"/>
+      <c r="N55" s="67"/>
       <c r="O55" s="15"/>
-      <c r="Q55" s="30"/>
+      <c r="Q55" s="42"/>
       <c r="R55" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="67"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="77"/>
-      <c r="V55" s="65"/>
+      <c r="S55" s="80"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="83"/>
+      <c r="V55" s="67"/>
       <c r="W55" s="18"/>
-      <c r="Y55" s="30"/>
+      <c r="Y55" s="42"/>
       <c r="Z55" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AA55" s="67"/>
-      <c r="AB55" s="47"/>
-      <c r="AC55" s="77"/>
-      <c r="AD55" s="65"/>
+      <c r="AA55" s="80"/>
+      <c r="AB55" s="45"/>
+      <c r="AC55" s="83"/>
+      <c r="AD55" s="67"/>
       <c r="AE55" s="18"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A57" s="54" t="s">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="55"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="18" t="s">
         <v>1</v>
       </c>
@@ -4858,10 +4991,10 @@
       <c r="G57" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="54" t="s">
+      <c r="I57" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="J57" s="55"/>
+      <c r="J57" s="59"/>
       <c r="K57" s="21" t="s">
         <v>1</v>
       </c>
@@ -4877,10 +5010,10 @@
       <c r="O57" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="54" t="s">
+      <c r="Q57" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="R57" s="55"/>
+      <c r="R57" s="59"/>
       <c r="S57" s="21" t="s">
         <v>1</v>
       </c>
@@ -4896,10 +5029,10 @@
       <c r="W57" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Y57" s="54" t="s">
+      <c r="Y57" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="Z57" s="55"/>
+      <c r="Z57" s="59"/>
       <c r="AA57" s="21" t="s">
         <v>1</v>
       </c>
@@ -4916,657 +5049,657 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="28" t="s">
+    <row r="58" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="70"/>
-      <c r="D58" s="44" t="s">
+      <c r="C58" s="72"/>
+      <c r="D58" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="E58" s="58" t="s">
+      <c r="E58" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="F58" s="48" t="s">
+      <c r="F58" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G58" s="72"/>
-      <c r="I58" s="28" t="s">
+      <c r="G58" s="84"/>
+      <c r="I58" s="40" t="s">
         <v>17</v>
       </c>
       <c r="J58" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K58" s="70" t="s">
+      <c r="K58" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="L58" s="44"/>
-      <c r="M58" s="58" t="s">
+      <c r="L58" s="38"/>
+      <c r="M58" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="N58" s="48" t="s">
+      <c r="N58" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="O58" s="70" t="s">
+      <c r="O58" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="Q58" s="28" t="s">
+      <c r="Q58" s="40" t="s">
         <v>17</v>
       </c>
       <c r="R58" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="S58" s="70" t="s">
+      <c r="S58" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="T58" s="44"/>
-      <c r="U58" s="58" t="s">
+      <c r="T58" s="38"/>
+      <c r="U58" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="V58" s="48" t="s">
+      <c r="V58" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="W58" s="70" t="s">
+      <c r="W58" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="Y58" s="28" t="s">
+      <c r="Y58" s="40" t="s">
         <v>17</v>
       </c>
       <c r="Z58" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AA58" s="56" t="s">
+      <c r="AA58" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="AB58" s="44"/>
-      <c r="AC58" s="58" t="s">
+      <c r="AB58" s="38"/>
+      <c r="AC58" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="AD58" s="48" t="s">
+      <c r="AD58" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AE58" s="56" t="s">
+      <c r="AE58" s="60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
+    <row r="59" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
       <c r="B59" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="73"/>
-      <c r="I59" s="29"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="79"/>
+      <c r="I59" s="41"/>
       <c r="J59" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K59" s="71"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="71"/>
-      <c r="Q59" s="29"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="73"/>
+      <c r="Q59" s="41"/>
       <c r="R59" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="S59" s="71"/>
-      <c r="T59" s="45"/>
-      <c r="U59" s="59"/>
-      <c r="V59" s="49"/>
-      <c r="W59" s="71"/>
-      <c r="Y59" s="29"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="64"/>
+      <c r="V59" s="48"/>
+      <c r="W59" s="73"/>
+      <c r="Y59" s="41"/>
       <c r="Z59" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AA59" s="57"/>
-      <c r="AB59" s="45"/>
-      <c r="AC59" s="59"/>
-      <c r="AD59" s="49"/>
-      <c r="AE59" s="57"/>
-    </row>
-    <row r="60" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29"/>
+      <c r="AA59" s="61"/>
+      <c r="AB59" s="39"/>
+      <c r="AC59" s="64"/>
+      <c r="AD59" s="48"/>
+      <c r="AE59" s="61"/>
+    </row>
+    <row r="60" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
       <c r="B60" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="58" t="s">
+      <c r="C60" s="62" t="s">
         <v>104</v>
       </c>
       <c r="D60" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F60" s="58" t="s">
+      <c r="F60" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G60" s="61" t="s">
+      <c r="G60" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="I60" s="29"/>
+      <c r="I60" s="41"/>
       <c r="J60" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K60" s="58" t="s">
+      <c r="K60" s="62" t="s">
         <v>104</v>
       </c>
       <c r="L60" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="M60" s="28" t="s">
+      <c r="M60" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="N60" s="58" t="s">
+      <c r="N60" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="O60" s="44" t="s">
+      <c r="O60" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="Q60" s="29"/>
+      <c r="Q60" s="41"/>
       <c r="R60" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="S60" s="58" t="s">
+      <c r="S60" s="62" t="s">
         <v>104</v>
       </c>
       <c r="T60" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="U60" s="28" t="s">
+      <c r="U60" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="V60" s="58" t="s">
+      <c r="V60" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="W60" s="44" t="s">
+      <c r="W60" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="Y60" s="29"/>
+      <c r="Y60" s="41"/>
       <c r="Z60" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AA60" s="58" t="s">
+      <c r="AA60" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="AB60" s="105" t="s">
+      <c r="AB60" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="AC60" s="28" t="s">
+      <c r="AC60" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="AD60" s="58" t="s">
+      <c r="AD60" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="AE60" s="44" t="s">
+      <c r="AE60" s="38" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29"/>
+    <row r="61" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
       <c r="B61" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="60"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="74"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="63"/>
-      <c r="I61" s="29"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="107"/>
+      <c r="I61" s="41"/>
       <c r="J61" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K61" s="60"/>
+      <c r="K61" s="63"/>
       <c r="L61" s="74"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="45"/>
-      <c r="Q61" s="29"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="39"/>
+      <c r="Q61" s="41"/>
       <c r="R61" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="S61" s="60"/>
+      <c r="S61" s="63"/>
       <c r="T61" s="74"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="59"/>
-      <c r="W61" s="104"/>
-      <c r="Y61" s="29"/>
+      <c r="U61" s="41"/>
+      <c r="V61" s="64"/>
+      <c r="W61" s="75"/>
+      <c r="Y61" s="41"/>
       <c r="Z61" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AA61" s="60"/>
-      <c r="AB61" s="105"/>
-      <c r="AC61" s="29"/>
-      <c r="AD61" s="59"/>
-      <c r="AE61" s="45"/>
-    </row>
-    <row r="62" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="30"/>
+      <c r="AA61" s="63"/>
+      <c r="AB61" s="65"/>
+      <c r="AC61" s="41"/>
+      <c r="AD61" s="64"/>
+      <c r="AE61" s="39"/>
+    </row>
+    <row r="62" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
       <c r="B62" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="59"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="30"/>
+      <c r="E62" s="42"/>
       <c r="F62" s="4"/>
       <c r="G62" s="11"/>
-      <c r="I62" s="30"/>
+      <c r="I62" s="42"/>
       <c r="J62" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K62" s="59"/>
+      <c r="K62" s="64"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="30"/>
+      <c r="M62" s="42"/>
       <c r="N62" s="4"/>
       <c r="O62" s="11"/>
-      <c r="Q62" s="30"/>
+      <c r="Q62" s="42"/>
       <c r="R62" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="S62" s="59"/>
+      <c r="S62" s="64"/>
       <c r="T62" s="4"/>
-      <c r="U62" s="30"/>
+      <c r="U62" s="42"/>
       <c r="V62" s="4"/>
       <c r="W62" s="11"/>
-      <c r="Y62" s="30"/>
+      <c r="Y62" s="42"/>
       <c r="Z62" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AA62" s="59"/>
+      <c r="AA62" s="64"/>
       <c r="AB62" s="4"/>
-      <c r="AC62" s="30"/>
+      <c r="AC62" s="42"/>
       <c r="AD62" s="4"/>
       <c r="AE62" s="11"/>
     </row>
-    <row r="63" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="28" t="s">
+    <row r="63" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B63" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D63" s="67" t="s">
+      <c r="D63" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E63" s="46" t="s">
+      <c r="E63" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="40" t="s">
+      <c r="F63" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="G63" s="48" t="s">
+      <c r="G63" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="I63" s="28" t="s">
+      <c r="I63" s="40" t="s">
         <v>18</v>
       </c>
       <c r="J63" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="52" t="s">
+      <c r="K63" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="L63" s="44" t="s">
+      <c r="L63" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M63" s="46" t="s">
+      <c r="M63" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="N63" s="40" t="s">
+      <c r="N63" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="O63" s="48" t="s">
+      <c r="O63" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="Q63" s="28" t="s">
+      <c r="Q63" s="40" t="s">
         <v>18</v>
       </c>
       <c r="R63" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S63" s="78" t="s">
+      <c r="S63" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="T63" s="44" t="s">
+      <c r="T63" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="U63" s="46" t="s">
+      <c r="U63" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="V63" s="40" t="s">
+      <c r="V63" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="W63" s="48" t="s">
+      <c r="W63" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="Y63" s="28" t="s">
+      <c r="Y63" s="40" t="s">
         <v>18</v>
       </c>
       <c r="Z63" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AA63" s="46" t="s">
+      <c r="AA63" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="AB63" s="44" t="s">
+      <c r="AB63" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="AC63" s="46" t="s">
+      <c r="AC63" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="AD63" s="46" t="s">
+      <c r="AD63" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="AE63" s="48" t="s">
+      <c r="AE63" s="47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="29"/>
+    <row r="64" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
       <c r="B64" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="45"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="49"/>
-      <c r="I64" s="29"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="48"/>
+      <c r="I64" s="41"/>
       <c r="J64" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K64" s="53"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="49"/>
-      <c r="Q64" s="29"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="70"/>
+      <c r="O64" s="48"/>
+      <c r="Q64" s="41"/>
       <c r="R64" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S64" s="78"/>
-      <c r="T64" s="45"/>
-      <c r="U64" s="47"/>
-      <c r="V64" s="40"/>
-      <c r="W64" s="49"/>
-      <c r="Y64" s="29"/>
+      <c r="S64" s="69"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="45"/>
+      <c r="V64" s="70"/>
+      <c r="W64" s="48"/>
+      <c r="Y64" s="41"/>
       <c r="Z64" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AA64" s="66"/>
-      <c r="AB64" s="45"/>
-      <c r="AC64" s="47"/>
-      <c r="AD64" s="86"/>
-      <c r="AE64" s="49"/>
-    </row>
-    <row r="65" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="29"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="39"/>
+      <c r="AC64" s="45"/>
+      <c r="AD64" s="46"/>
+      <c r="AE64" s="48"/>
+    </row>
+    <row r="65" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
       <c r="B65" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="68" t="s">
+      <c r="C65" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="67"/>
-      <c r="E65" s="46" t="s">
+      <c r="D65" s="80"/>
+      <c r="E65" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="F65" s="40"/>
+      <c r="F65" s="70"/>
       <c r="G65" s="4"/>
-      <c r="I65" s="29"/>
+      <c r="I65" s="41"/>
       <c r="J65" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K65" s="68" t="s">
+      <c r="K65" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="L65" s="81" t="s">
+      <c r="L65" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="M65" s="46" t="s">
+      <c r="M65" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="N65" s="40"/>
-      <c r="O65" s="52" t="s">
+      <c r="N65" s="70"/>
+      <c r="O65" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="Q65" s="29"/>
+      <c r="Q65" s="41"/>
       <c r="R65" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="S65" s="78"/>
-      <c r="T65" s="81" t="s">
+      <c r="S65" s="69"/>
+      <c r="T65" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="U65" s="46" t="s">
+      <c r="U65" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="V65" s="40"/>
-      <c r="W65" s="82" t="s">
+      <c r="V65" s="70"/>
+      <c r="W65" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="Y65" s="29"/>
+      <c r="Y65" s="41"/>
       <c r="Z65" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AA65" s="47"/>
-      <c r="AB65" s="50" t="s">
+      <c r="AA65" s="45"/>
+      <c r="AB65" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="AC65" s="46" t="s">
+      <c r="AC65" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="AD65" s="106" t="s">
+      <c r="AD65" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="AE65" s="52" t="s">
+      <c r="AE65" s="53" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="30"/>
+    <row r="66" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="42"/>
       <c r="B66" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="69"/>
+      <c r="C66" s="77"/>
       <c r="D66" s="22"/>
-      <c r="E66" s="47"/>
+      <c r="E66" s="45"/>
       <c r="F66" s="23"/>
       <c r="G66" s="18"/>
-      <c r="I66" s="30"/>
+      <c r="I66" s="42"/>
       <c r="J66" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K66" s="69"/>
-      <c r="L66" s="45"/>
-      <c r="M66" s="47"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="45"/>
       <c r="N66" s="23"/>
-      <c r="O66" s="53"/>
-      <c r="Q66" s="30"/>
+      <c r="O66" s="54"/>
+      <c r="Q66" s="42"/>
       <c r="R66" s="21" t="s">
         <v>14</v>
       </c>
       <c r="S66" s="23"/>
-      <c r="T66" s="45"/>
-      <c r="U66" s="47"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="45"/>
       <c r="V66" s="23"/>
-      <c r="W66" s="65"/>
-      <c r="Y66" s="30"/>
+      <c r="W66" s="67"/>
+      <c r="Y66" s="42"/>
       <c r="Z66" s="21" t="s">
         <v>14</v>
       </c>
       <c r="AA66" s="23"/>
-      <c r="AB66" s="51"/>
-      <c r="AC66" s="47"/>
-      <c r="AD66" s="107"/>
-      <c r="AE66" s="53"/>
-    </row>
-    <row r="67" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="28" t="s">
+      <c r="AB66" s="50"/>
+      <c r="AC66" s="45"/>
+      <c r="AD66" s="52"/>
+      <c r="AE66" s="54"/>
+    </row>
+    <row r="67" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="E67" s="34" t="s">
+      <c r="E67" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="F67" s="31" t="s">
+      <c r="F67" s="55" t="s">
         <v>113</v>
       </c>
       <c r="G67" s="18"/>
-      <c r="I67" s="28" t="s">
+      <c r="I67" s="40" t="s">
         <v>19</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K67" s="28" t="s">
+      <c r="K67" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="L67" s="46" t="s">
+      <c r="L67" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="M67" s="34" t="s">
+      <c r="M67" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N67" s="31" t="s">
+      <c r="N67" s="55" t="s">
         <v>113</v>
       </c>
       <c r="O67" s="21"/>
-      <c r="Q67" s="28" t="s">
+      <c r="Q67" s="40" t="s">
         <v>19</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S67" s="28"/>
-      <c r="T67" s="46" t="s">
+      <c r="S67" s="40"/>
+      <c r="T67" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="U67" s="34" t="s">
+      <c r="U67" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="V67" s="28" t="s">
+      <c r="V67" s="40" t="s">
         <v>110</v>
       </c>
       <c r="W67" s="21"/>
-      <c r="Y67" s="28" t="s">
+      <c r="Y67" s="40" t="s">
         <v>19</v>
       </c>
       <c r="Z67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA67" s="28" t="s">
+      <c r="AA67" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="AB67" s="31" t="s">
+      <c r="AB67" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="AC67" s="34" t="s">
+      <c r="AC67" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="AD67" s="31" t="s">
+      <c r="AD67" s="55" t="s">
         <v>122</v>
       </c>
       <c r="AE67" s="21"/>
     </row>
-    <row r="68" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="29"/>
+    <row r="68" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
       <c r="B68" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="32"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="56"/>
       <c r="G68" s="18"/>
-      <c r="I68" s="29"/>
+      <c r="I68" s="41"/>
       <c r="J68" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K68" s="64"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="32"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="56"/>
       <c r="O68" s="21"/>
-      <c r="Q68" s="29"/>
+      <c r="Q68" s="41"/>
       <c r="R68" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="S68" s="64"/>
-      <c r="T68" s="66"/>
-      <c r="U68" s="35"/>
-      <c r="V68" s="64"/>
+      <c r="S68" s="66"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="66"/>
       <c r="W68" s="21"/>
-      <c r="Y68" s="29"/>
+      <c r="Y68" s="41"/>
       <c r="Z68" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA68" s="64"/>
-      <c r="AB68" s="32"/>
-      <c r="AC68" s="35"/>
-      <c r="AD68" s="32"/>
+      <c r="AA68" s="66"/>
+      <c r="AB68" s="56"/>
+      <c r="AC68" s="29"/>
+      <c r="AD68" s="56"/>
       <c r="AE68" s="21"/>
     </row>
-    <row r="69" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="30"/>
+    <row r="69" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="42"/>
       <c r="B69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="65"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="33"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="57"/>
       <c r="G69" s="18"/>
-      <c r="I69" s="30"/>
+      <c r="I69" s="42"/>
       <c r="J69" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="K69" s="65"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="33"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="57"/>
       <c r="O69" s="21"/>
-      <c r="Q69" s="30"/>
+      <c r="Q69" s="42"/>
       <c r="R69" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S69" s="65"/>
-      <c r="T69" s="47"/>
-      <c r="U69" s="36"/>
-      <c r="V69" s="65"/>
+      <c r="S69" s="67"/>
+      <c r="T69" s="45"/>
+      <c r="U69" s="30"/>
+      <c r="V69" s="67"/>
       <c r="W69" s="21"/>
-      <c r="Y69" s="30"/>
+      <c r="Y69" s="42"/>
       <c r="Z69" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AA69" s="65"/>
-      <c r="AB69" s="33"/>
-      <c r="AC69" s="36"/>
-      <c r="AD69" s="33"/>
+      <c r="AA69" s="67"/>
+      <c r="AB69" s="57"/>
+      <c r="AC69" s="30"/>
+      <c r="AD69" s="57"/>
       <c r="AE69" s="21"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A71" s="54" t="s">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="55"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="21" t="s">
         <v>1</v>
       </c>
@@ -5582,10 +5715,10 @@
       <c r="G71" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="54" t="s">
+      <c r="I71" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="J71" s="55"/>
+      <c r="J71" s="59"/>
       <c r="K71" s="21" t="s">
         <v>1</v>
       </c>
@@ -5601,10 +5734,10 @@
       <c r="O71" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Q71" s="54" t="s">
+      <c r="Q71" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="R71" s="55"/>
+      <c r="R71" s="59"/>
       <c r="S71" s="25" t="s">
         <v>1</v>
       </c>
@@ -5621,542 +5754,1142 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="28" t="s">
+    <row r="72" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="56" t="s">
+      <c r="C72" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="D72" s="44"/>
-      <c r="E72" s="58" t="s">
+      <c r="D72" s="38"/>
+      <c r="E72" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="F72" s="48" t="s">
+      <c r="F72" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G72" s="56" t="s">
+      <c r="G72" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="I72" s="28" t="s">
+      <c r="I72" s="40" t="s">
         <v>17</v>
       </c>
       <c r="J72" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K72" s="56" t="s">
+      <c r="K72" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="L72" s="44"/>
-      <c r="M72" s="58" t="s">
+      <c r="L72" s="38"/>
+      <c r="M72" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="N72" s="48" t="s">
+      <c r="N72" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="O72" s="56" t="s">
+      <c r="O72" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="Q72" s="28" t="s">
+      <c r="Q72" s="40" t="s">
         <v>17</v>
       </c>
       <c r="R72" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="S72" s="56" t="s">
+      <c r="S72" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="T72" s="44"/>
-      <c r="U72" s="58" t="s">
+      <c r="T72" s="38"/>
+      <c r="U72" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="V72" s="48" t="s">
+      <c r="V72" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="W72" s="56" t="s">
+      <c r="W72" s="60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="29"/>
+    <row r="73" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
       <c r="B73" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="57"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="57"/>
-      <c r="I73" s="29"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="61"/>
+      <c r="I73" s="41"/>
       <c r="J73" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K73" s="57"/>
-      <c r="L73" s="45"/>
-      <c r="M73" s="59"/>
-      <c r="N73" s="49"/>
-      <c r="O73" s="57"/>
-      <c r="Q73" s="29"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="48"/>
+      <c r="O73" s="61"/>
+      <c r="Q73" s="41"/>
       <c r="R73" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="S73" s="57"/>
-      <c r="T73" s="45"/>
-      <c r="U73" s="59"/>
-      <c r="V73" s="49"/>
-      <c r="W73" s="57"/>
-    </row>
-    <row r="74" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="29"/>
+      <c r="S73" s="61"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="64"/>
+      <c r="V73" s="48"/>
+      <c r="W73" s="61"/>
+    </row>
+    <row r="74" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="41"/>
       <c r="B74" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="58" t="s">
+      <c r="C74" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="105" t="s">
+      <c r="D74" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="E74" s="114" t="s">
+      <c r="E74" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F74" s="58" t="s">
+      <c r="F74" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G74" s="44" t="s">
+      <c r="G74" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="I74" s="29"/>
+      <c r="I74" s="41"/>
       <c r="J74" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K74" s="58" t="s">
+      <c r="K74" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="L74" s="105" t="s">
+      <c r="L74" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="M74" s="111" t="s">
+      <c r="M74" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="N74" s="58" t="s">
+      <c r="N74" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="O74" s="44" t="s">
+      <c r="O74" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="Q74" s="29"/>
+      <c r="Q74" s="41"/>
       <c r="R74" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="S74" s="58" t="s">
+      <c r="S74" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="T74" s="40" t="s">
+      <c r="T74" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="U74" s="61" t="s">
+      <c r="U74" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="V74" s="58" t="s">
+      <c r="V74" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="W74" s="44" t="s">
+      <c r="W74" s="38" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="29"/>
+    <row r="75" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
       <c r="B75" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="60"/>
-      <c r="D75" s="105"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="45"/>
-      <c r="I75" s="29"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="39"/>
+      <c r="I75" s="41"/>
       <c r="J75" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K75" s="60"/>
-      <c r="L75" s="105"/>
-      <c r="M75" s="112"/>
-      <c r="N75" s="59"/>
-      <c r="O75" s="45"/>
-      <c r="Q75" s="29"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="65"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="64"/>
+      <c r="O75" s="39"/>
+      <c r="Q75" s="41"/>
       <c r="R75" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="S75" s="60"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="62"/>
-      <c r="V75" s="59"/>
-      <c r="W75" s="45"/>
-    </row>
-    <row r="76" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="30"/>
+      <c r="S75" s="63"/>
+      <c r="T75" s="70"/>
+      <c r="U75" s="108"/>
+      <c r="V75" s="64"/>
+      <c r="W75" s="39"/>
+    </row>
+    <row r="76" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="42"/>
       <c r="B76" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="59"/>
+      <c r="C76" s="64"/>
       <c r="D76" s="4"/>
       <c r="E76" s="12"/>
       <c r="F76" s="4"/>
       <c r="G76" s="11"/>
-      <c r="I76" s="30"/>
+      <c r="I76" s="42"/>
       <c r="J76" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K76" s="59"/>
+      <c r="K76" s="64"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="113"/>
+      <c r="M76" s="33"/>
       <c r="N76" s="4"/>
       <c r="O76" s="11"/>
-      <c r="Q76" s="30"/>
+      <c r="Q76" s="42"/>
       <c r="R76" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="S76" s="59"/>
+      <c r="S76" s="64"/>
       <c r="T76" s="4"/>
-      <c r="U76" s="63"/>
+      <c r="U76" s="107"/>
       <c r="V76" s="4"/>
       <c r="W76" s="11"/>
     </row>
-    <row r="77" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="28" t="s">
+    <row r="77" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="46" t="s">
+      <c r="C77" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D77" s="44" t="s">
+      <c r="D77" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E77" s="46" t="s">
+      <c r="E77" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="F77" s="46" t="s">
+      <c r="F77" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="G77" s="48" t="s">
+      <c r="G77" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="I77" s="28" t="s">
+      <c r="I77" s="40" t="s">
         <v>18</v>
       </c>
       <c r="J77" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K77" s="46" t="s">
+      <c r="K77" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="L77" s="44" t="s">
+      <c r="L77" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="M77" s="46" t="s">
+      <c r="M77" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="N77" s="46" t="s">
+      <c r="N77" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="O77" s="48" t="s">
+      <c r="O77" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="Q77" s="28" t="s">
+      <c r="Q77" s="40" t="s">
         <v>18</v>
       </c>
       <c r="R77" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="S77" s="41" t="s">
+      <c r="S77" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="T77" s="44" t="s">
+      <c r="T77" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="U77" s="46" t="s">
+      <c r="U77" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="V77" s="40" t="s">
+      <c r="V77" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="W77" s="48" t="s">
+      <c r="W77" s="47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="29"/>
+    <row r="78" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="41"/>
       <c r="B78" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="66"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="49"/>
-      <c r="I78" s="29"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="48"/>
+      <c r="I78" s="41"/>
       <c r="J78" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K78" s="66"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="47"/>
-      <c r="N78" s="86"/>
-      <c r="O78" s="49"/>
-      <c r="Q78" s="29"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="46"/>
+      <c r="O78" s="48"/>
+      <c r="Q78" s="41"/>
       <c r="R78" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="S78" s="42"/>
-      <c r="T78" s="45"/>
-      <c r="U78" s="47"/>
-      <c r="V78" s="40"/>
-      <c r="W78" s="49"/>
-    </row>
-    <row r="79" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="29"/>
+      <c r="S78" s="113"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="45"/>
+      <c r="V78" s="70"/>
+      <c r="W78" s="48"/>
+    </row>
+    <row r="79" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="41"/>
       <c r="B79" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="47"/>
-      <c r="D79" s="50" t="s">
+      <c r="C79" s="45"/>
+      <c r="D79" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="46" t="s">
+      <c r="E79" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="F79" s="106" t="s">
+      <c r="F79" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G79" s="52" t="s">
+      <c r="G79" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="I79" s="29"/>
+      <c r="I79" s="41"/>
       <c r="J79" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K79" s="47"/>
-      <c r="L79" s="50" t="s">
+      <c r="K79" s="45"/>
+      <c r="L79" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="M79" s="46" t="s">
+      <c r="M79" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="N79" s="106" t="s">
+      <c r="N79" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="O79" s="52" t="s">
+      <c r="O79" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="Q79" s="29"/>
+      <c r="Q79" s="41"/>
       <c r="R79" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S79" s="43"/>
-      <c r="T79" s="50" t="s">
+      <c r="S79" s="114"/>
+      <c r="T79" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="U79" s="46" t="s">
+      <c r="U79" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="V79" s="40"/>
-      <c r="W79" s="52" t="s">
+      <c r="V79" s="70"/>
+      <c r="W79" s="53" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="30"/>
+    <row r="80" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="42"/>
       <c r="B80" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C80" s="23"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="53"/>
-      <c r="I80" s="30"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="54"/>
+      <c r="I80" s="42"/>
       <c r="J80" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K80" s="23"/>
-      <c r="L80" s="51"/>
-      <c r="M80" s="47"/>
-      <c r="N80" s="107"/>
-      <c r="O80" s="53"/>
-      <c r="Q80" s="30"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="52"/>
+      <c r="O80" s="54"/>
+      <c r="Q80" s="42"/>
       <c r="R80" s="25" t="s">
         <v>14</v>
       </c>
       <c r="S80" s="23"/>
-      <c r="T80" s="51"/>
-      <c r="U80" s="47"/>
+      <c r="T80" s="50"/>
+      <c r="U80" s="45"/>
       <c r="V80" s="27"/>
-      <c r="W80" s="53"/>
-    </row>
-    <row r="81" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="28" t="s">
+      <c r="W80" s="54"/>
+    </row>
+    <row r="81" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="108" t="s">
+      <c r="C81" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="E81" s="34" t="s">
+      <c r="E81" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="F81" s="111" t="s">
+      <c r="F81" s="31" t="s">
         <v>122</v>
       </c>
       <c r="G81" s="21"/>
-      <c r="I81" s="28" t="s">
+      <c r="I81" s="40" t="s">
         <v>19</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K81" s="114" t="s">
+      <c r="K81" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="L81" s="31" t="s">
+      <c r="L81" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="M81" s="34" t="s">
+      <c r="M81" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="N81" s="108" t="s">
+      <c r="N81" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="O81" s="28"/>
-      <c r="Q81" s="28" t="s">
+      <c r="O81" s="40"/>
+      <c r="Q81" s="40" t="s">
         <v>19</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="S81" s="26"/>
-      <c r="T81" s="31" t="s">
+      <c r="T81" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="U81" s="34" t="s">
+      <c r="U81" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="V81" s="37" t="s">
+      <c r="V81" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="W81" s="28"/>
-    </row>
-    <row r="82" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="29"/>
+      <c r="W81" s="40"/>
+    </row>
+    <row r="82" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="41"/>
       <c r="B82" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="109"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="112"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="32"/>
       <c r="G82" s="21"/>
-      <c r="I82" s="29"/>
+      <c r="I82" s="41"/>
       <c r="J82" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K82" s="114"/>
-      <c r="L82" s="32"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="109"/>
-      <c r="O82" s="29"/>
-      <c r="Q82" s="29"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="41"/>
+      <c r="Q82" s="41"/>
       <c r="R82" s="25" t="s">
         <v>16</v>
       </c>
       <c r="S82" s="26"/>
-      <c r="T82" s="32"/>
-      <c r="U82" s="35"/>
-      <c r="V82" s="38"/>
-      <c r="W82" s="29"/>
-    </row>
-    <row r="83" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="30"/>
+      <c r="T82" s="56"/>
+      <c r="U82" s="29"/>
+      <c r="V82" s="110"/>
+      <c r="W82" s="41"/>
+    </row>
+    <row r="83" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="42"/>
       <c r="B83" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="110"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="113"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="33"/>
       <c r="G83" s="21"/>
-      <c r="I83" s="30"/>
+      <c r="I83" s="42"/>
       <c r="J83" s="21" t="s">
         <v>37</v>
       </c>
       <c r="K83" s="12"/>
-      <c r="L83" s="33"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="110"/>
-      <c r="O83" s="30"/>
-      <c r="Q83" s="30"/>
+      <c r="L83" s="57"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="42"/>
+      <c r="Q83" s="42"/>
       <c r="R83" s="25" t="s">
         <v>37</v>
       </c>
       <c r="S83" s="12"/>
-      <c r="T83" s="33"/>
-      <c r="U83" s="36"/>
-      <c r="V83" s="39"/>
-      <c r="W83" s="30"/>
+      <c r="T83" s="57"/>
+      <c r="U83" s="30"/>
+      <c r="V83" s="111"/>
+      <c r="W83" s="42"/>
+    </row>
+    <row r="86" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" s="115" t="s">
+        <v>153</v>
+      </c>
+      <c r="G88" s="115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="G89" s="115" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F90" s="115" t="s">
+        <v>159</v>
+      </c>
+      <c r="G90" s="115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D91" s="115" t="s">
+        <v>155</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91" s="115" t="s">
+        <v>159</v>
+      </c>
+      <c r="G91" s="115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" s="115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="589">
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="M74:M76"/>
-    <mergeCell ref="N81:N83"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="I77:I80"/>
-    <mergeCell ref="K77:K79"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="O81:O83"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I72:I76"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="K74:K76"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="L81:L83"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="Q81:Q83"/>
+    <mergeCell ref="T81:T83"/>
+    <mergeCell ref="U81:U83"/>
+    <mergeCell ref="V81:V83"/>
+    <mergeCell ref="W81:W83"/>
+    <mergeCell ref="V77:V79"/>
+    <mergeCell ref="Q77:Q80"/>
+    <mergeCell ref="S77:S79"/>
+    <mergeCell ref="T77:T78"/>
+    <mergeCell ref="U77:U78"/>
+    <mergeCell ref="W77:W78"/>
+    <mergeCell ref="T79:T80"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="W79:W80"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="Q72:Q76"/>
+    <mergeCell ref="S72:S73"/>
+    <mergeCell ref="T72:T73"/>
+    <mergeCell ref="U72:U73"/>
+    <mergeCell ref="V72:V73"/>
+    <mergeCell ref="W72:W73"/>
+    <mergeCell ref="S74:S76"/>
+    <mergeCell ref="T74:T75"/>
+    <mergeCell ref="U74:U76"/>
+    <mergeCell ref="V74:V75"/>
+    <mergeCell ref="W74:W75"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="Y53:Y55"/>
+    <mergeCell ref="AA53:AA55"/>
+    <mergeCell ref="AB53:AB55"/>
+    <mergeCell ref="AC53:AC55"/>
+    <mergeCell ref="AD53:AD55"/>
+    <mergeCell ref="AA49:AA50"/>
+    <mergeCell ref="AB49:AB51"/>
+    <mergeCell ref="AA51:AA52"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="Y49:Y52"/>
+    <mergeCell ref="AC49:AC50"/>
+    <mergeCell ref="AD49:AD50"/>
+    <mergeCell ref="Q49:Q52"/>
+    <mergeCell ref="S49:S51"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="V51:V52"/>
+    <mergeCell ref="Q53:Q55"/>
+    <mergeCell ref="S53:S55"/>
+    <mergeCell ref="T53:T55"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="AE49:AE50"/>
+    <mergeCell ref="AC51:AC52"/>
+    <mergeCell ref="AD51:AD52"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="Y44:Y48"/>
+    <mergeCell ref="AA44:AA45"/>
+    <mergeCell ref="AB44:AB45"/>
+    <mergeCell ref="AC44:AC45"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="AE44:AE45"/>
+    <mergeCell ref="AA46:AA48"/>
+    <mergeCell ref="AB46:AB47"/>
+    <mergeCell ref="AC46:AC48"/>
+    <mergeCell ref="AD46:AD47"/>
+    <mergeCell ref="AE46:AE47"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="V53:V55"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="T51:T52"/>
+    <mergeCell ref="U53:U55"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:Q48"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="S46:S48"/>
+    <mergeCell ref="U46:U48"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="W46:W47"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="Q35:Q38"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="AE21:AE22"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="Y25:Y27"/>
+    <mergeCell ref="AA25:AA27"/>
+    <mergeCell ref="AB25:AB27"/>
+    <mergeCell ref="AC25:AC27"/>
+    <mergeCell ref="AD25:AD27"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="AA21:AA23"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="AA18:AA20"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Y20"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:Q20"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="Q2:Q6"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="Y2:Y6"/>
+    <mergeCell ref="Y7:Y10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:Q34"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Y34"/>
+    <mergeCell ref="Y35:Y38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="S39:S41"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="V39:V41"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AA32:AA34"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AC32:AC34"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AA35:AA37"/>
+    <mergeCell ref="AB35:AB37"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AE35:AE36"/>
+    <mergeCell ref="AC37:AC38"/>
+    <mergeCell ref="AD37:AD38"/>
+    <mergeCell ref="Y39:Y41"/>
+    <mergeCell ref="AA39:AA41"/>
+    <mergeCell ref="AB39:AB41"/>
+    <mergeCell ref="AC39:AC40"/>
+    <mergeCell ref="AD39:AD41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M48"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N55"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="N67:N69"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M62"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="W58:W59"/>
+    <mergeCell ref="S60:S62"/>
+    <mergeCell ref="T60:T61"/>
+    <mergeCell ref="U60:U62"/>
+    <mergeCell ref="V60:V61"/>
+    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N65"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="Q67:Q69"/>
+    <mergeCell ref="S67:S69"/>
+    <mergeCell ref="T67:T69"/>
+    <mergeCell ref="U67:U69"/>
+    <mergeCell ref="V67:V69"/>
+    <mergeCell ref="W65:W66"/>
+    <mergeCell ref="S63:S65"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="Y57:Z57"/>
+    <mergeCell ref="Y58:Y62"/>
+    <mergeCell ref="Y63:Y66"/>
+    <mergeCell ref="Y67:Y69"/>
+    <mergeCell ref="Q63:Q66"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="V63:V65"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="Q58:Q62"/>
+    <mergeCell ref="S58:S59"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="U58:U59"/>
+    <mergeCell ref="AE63:AE64"/>
+    <mergeCell ref="AB65:AB66"/>
+    <mergeCell ref="AC65:AC66"/>
+    <mergeCell ref="AE65:AE66"/>
+    <mergeCell ref="AA58:AA59"/>
+    <mergeCell ref="AB58:AB59"/>
+    <mergeCell ref="AC58:AC59"/>
+    <mergeCell ref="AD58:AD59"/>
+    <mergeCell ref="AE58:AE59"/>
+    <mergeCell ref="AA60:AA62"/>
+    <mergeCell ref="AB60:AB61"/>
+    <mergeCell ref="AC60:AC62"/>
+    <mergeCell ref="AD60:AD61"/>
+    <mergeCell ref="AE60:AE61"/>
     <mergeCell ref="AA67:AA69"/>
     <mergeCell ref="AB67:AB69"/>
     <mergeCell ref="AC67:AC69"/>
@@ -6181,531 +6914,46 @@
     <mergeCell ref="N74:N75"/>
     <mergeCell ref="AB63:AB64"/>
     <mergeCell ref="AC63:AC64"/>
-    <mergeCell ref="AE63:AE64"/>
-    <mergeCell ref="AB65:AB66"/>
-    <mergeCell ref="AC65:AC66"/>
-    <mergeCell ref="AE65:AE66"/>
-    <mergeCell ref="AA58:AA59"/>
-    <mergeCell ref="AB58:AB59"/>
-    <mergeCell ref="AC58:AC59"/>
-    <mergeCell ref="AD58:AD59"/>
-    <mergeCell ref="AE58:AE59"/>
-    <mergeCell ref="AA60:AA62"/>
-    <mergeCell ref="AB60:AB61"/>
-    <mergeCell ref="AC60:AC62"/>
-    <mergeCell ref="AD60:AD61"/>
-    <mergeCell ref="AE60:AE61"/>
-    <mergeCell ref="Q67:Q69"/>
-    <mergeCell ref="S67:S69"/>
-    <mergeCell ref="T67:T69"/>
-    <mergeCell ref="U67:U69"/>
-    <mergeCell ref="V67:V69"/>
-    <mergeCell ref="W65:W66"/>
-    <mergeCell ref="S63:S65"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="Y57:Z57"/>
-    <mergeCell ref="Y58:Y62"/>
-    <mergeCell ref="Y63:Y66"/>
-    <mergeCell ref="Y67:Y69"/>
-    <mergeCell ref="Q63:Q66"/>
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="V63:V65"/>
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="Q58:Q62"/>
-    <mergeCell ref="S58:S59"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="U58:U59"/>
-    <mergeCell ref="V58:V59"/>
-    <mergeCell ref="W58:W59"/>
-    <mergeCell ref="S60:S62"/>
-    <mergeCell ref="T60:T61"/>
-    <mergeCell ref="U60:U62"/>
-    <mergeCell ref="V60:V61"/>
-    <mergeCell ref="W60:W61"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N65"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="N67:N69"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M62"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="L49:L51"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N55"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M48"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="AA35:AA37"/>
-    <mergeCell ref="AB35:AB37"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AE35:AE36"/>
-    <mergeCell ref="AC37:AC38"/>
-    <mergeCell ref="AD37:AD38"/>
-    <mergeCell ref="Y39:Y41"/>
-    <mergeCell ref="AA39:AA41"/>
-    <mergeCell ref="AB39:AB41"/>
-    <mergeCell ref="AC39:AC40"/>
-    <mergeCell ref="AD39:AD41"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AA32:AA34"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="AC32:AC34"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y30:Y34"/>
-    <mergeCell ref="Y35:Y38"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="S39:S41"/>
-    <mergeCell ref="T39:T41"/>
-    <mergeCell ref="V39:V41"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:Q34"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="Q2:Q6"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="Y2:Y6"/>
-    <mergeCell ref="Y7:Y10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:Q20"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="AA18:AA20"/>
-    <mergeCell ref="AB18:AB19"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Y20"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="Y25:Y27"/>
-    <mergeCell ref="AA25:AA27"/>
-    <mergeCell ref="AB25:AB27"/>
-    <mergeCell ref="AC25:AC27"/>
-    <mergeCell ref="AD25:AD27"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="AA21:AA23"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="S46:S48"/>
-    <mergeCell ref="U46:U48"/>
-    <mergeCell ref="V46:V47"/>
-    <mergeCell ref="W46:W47"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="M39:M41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="Q35:Q38"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="V53:V55"/>
-    <mergeCell ref="T49:T50"/>
-    <mergeCell ref="T51:T52"/>
-    <mergeCell ref="U53:U55"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:Q48"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="AE49:AE50"/>
-    <mergeCell ref="AC51:AC52"/>
-    <mergeCell ref="AD51:AD52"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="Y44:Y48"/>
-    <mergeCell ref="AA44:AA45"/>
-    <mergeCell ref="AB44:AB45"/>
-    <mergeCell ref="AC44:AC45"/>
-    <mergeCell ref="AD44:AD45"/>
-    <mergeCell ref="AE44:AE45"/>
-    <mergeCell ref="AA46:AA48"/>
-    <mergeCell ref="AB46:AB47"/>
-    <mergeCell ref="AC46:AC48"/>
-    <mergeCell ref="AD46:AD47"/>
-    <mergeCell ref="AE46:AE47"/>
-    <mergeCell ref="Y53:Y55"/>
-    <mergeCell ref="AA53:AA55"/>
-    <mergeCell ref="AB53:AB55"/>
-    <mergeCell ref="AC53:AC55"/>
-    <mergeCell ref="AD53:AD55"/>
-    <mergeCell ref="AA49:AA50"/>
-    <mergeCell ref="AB49:AB51"/>
-    <mergeCell ref="AA51:AA52"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="Y49:Y52"/>
-    <mergeCell ref="AC49:AC50"/>
-    <mergeCell ref="AD49:AD50"/>
-    <mergeCell ref="Q49:Q52"/>
-    <mergeCell ref="S49:S51"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="V51:V52"/>
-    <mergeCell ref="Q53:Q55"/>
-    <mergeCell ref="S53:S55"/>
-    <mergeCell ref="T53:T55"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="Q72:Q76"/>
-    <mergeCell ref="S72:S73"/>
-    <mergeCell ref="T72:T73"/>
-    <mergeCell ref="U72:U73"/>
-    <mergeCell ref="V72:V73"/>
-    <mergeCell ref="W72:W73"/>
-    <mergeCell ref="S74:S76"/>
-    <mergeCell ref="T74:T75"/>
-    <mergeCell ref="U74:U76"/>
-    <mergeCell ref="V74:V75"/>
-    <mergeCell ref="W74:W75"/>
-    <mergeCell ref="Q81:Q83"/>
-    <mergeCell ref="T81:T83"/>
-    <mergeCell ref="U81:U83"/>
-    <mergeCell ref="V81:V83"/>
-    <mergeCell ref="W81:W83"/>
-    <mergeCell ref="V77:V79"/>
-    <mergeCell ref="Q77:Q80"/>
-    <mergeCell ref="S77:S79"/>
-    <mergeCell ref="T77:T78"/>
-    <mergeCell ref="U77:U78"/>
-    <mergeCell ref="W77:W78"/>
-    <mergeCell ref="T79:T80"/>
-    <mergeCell ref="U79:U80"/>
-    <mergeCell ref="W79:W80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I72:I76"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="K74:K76"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="L81:L83"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="M74:M76"/>
+    <mergeCell ref="N81:N83"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="I77:I80"/>
+    <mergeCell ref="K77:K79"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="O81:O83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/杭电杂项/课程表.xlsx
+++ b/杭电杂项/课程表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1236" yWindow="2976" windowWidth="12048" windowHeight="11364"/>
+    <workbookView xWindow="1240" yWindow="2980" windowWidth="12050" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="164">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1044,33 +1044,13 @@
     <t>第六七节</t>
   </si>
   <si>
-    <t>形势与政策5/6-12周(双)/下沙 第6教研楼北114/赵天鹏,何晨玥/(2021-2022-1)-A6500045-37/0/4/0.25</t>
-  </si>
-  <si>
     <t>第八九节</t>
   </si>
   <si>
-    <t>大学生职业发展与就业指导3/3-11周(单)/下沙 第3教研楼411/何凌帆/(2021-2022-1)-A8400013-28/0/10/0.5</t>
-  </si>
-  <si>
     <t>晚上</t>
   </si>
   <si>
-    <t>第十十一十二节</t>
-  </si>
-  <si>
     <t>注--内容顺序为：课程&lt;&gt;周次&lt;&gt;地点&lt;&gt;教师&lt;&gt;教学班&lt;&gt;选课人数&lt;&gt;总学时&lt;&gt;学分          本学期2021-09-13正式上课至2022-01-07结束，共17周.                              打印时间：2021-06-19</t>
-  </si>
-  <si>
-    <t>创新实践4
-/(3-4节)1-17周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大数据基础/1-17周/
-下沙 第6教研楼中101/
-陈洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作系统（甲）
@@ -1087,6 +1067,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>计算机网络实验
+/1-17周
+/下沙 第3教研楼101
+/徐建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程（甲）
+/(6-8节)1-17周
+/下沙 第6教研楼北414
+/陈婧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络（甲）
+/1-17周
+/下沙 第6教研楼北306
+/徐建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统课程实践
+/(6-8节)1-17周
+/下沙 第7教研楼中2021
+/任彧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>马克思主义基本原理
 /1-17周
 /下沙 第3教研楼101
@@ -1094,6 +1102,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>大数据基础/1-17周/
+下沙 第6教研楼中101/
+陈洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>文献检索与论文写作
 /1-9周/
 下沙 第3教研楼101
@@ -1101,31 +1115,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算机网络实验
-/1-17周
-/下沙 第3教研楼101
-/徐建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件工程（甲）
-/(6-8节)1-17周
-/下沙 第6教研楼北414
-/陈婧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机网络（甲）
-/1-17周
-/下沙 第6教研楼北306
-/徐建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作系统课程实践
-/(6-8节)1-17周
-/下沙 第7教研楼中2021
-/任彧</t>
+    <t>形势与政策5
+/6-12周(双)
+/下沙 第6教研楼北114
+/赵天鹏,何晨玥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学生职业发展与就业指导3
+/3-11周(单)
+/下沙 第3教研楼411
+/何凌帆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创业管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创业基础</t>
+    </r>
+  </si>
+  <si>
+    <t>第十十一十二节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程图学与计算机绘图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业管理/创业基础
+工程图学与计算机绘图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,7 +1168,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1339,6 +1374,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1458,7 +1504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1543,6 +1589,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1552,6 +1619,228 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1561,252 +1850,10 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2124,34 +2171,34 @@
   <dimension ref="A1:AE93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="20.109375" style="1" customWidth="1"/>
+    <col min="3" max="7" width="20.08203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="1"/>
-    <col min="9" max="9" width="4.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.08203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
-    <col min="11" max="15" width="20.109375" style="1" customWidth="1"/>
+    <col min="11" max="15" width="20.08203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="8.6640625" style="1"/>
-    <col min="17" max="17" width="4.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.08203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.6640625" style="1" customWidth="1"/>
-    <col min="19" max="23" width="20.109375" style="1" customWidth="1"/>
+    <col min="19" max="23" width="20.08203125" style="1" customWidth="1"/>
     <col min="24" max="24" width="8.6640625" style="1"/>
-    <col min="25" max="25" width="4.109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.08203125" style="1" customWidth="1"/>
     <col min="26" max="26" width="10.6640625" style="1" customWidth="1"/>
-    <col min="27" max="31" width="20.109375" style="1" customWidth="1"/>
+    <col min="27" max="31" width="20.08203125" style="1" customWidth="1"/>
     <col min="32" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="94"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2167,10 +2214,10 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="92"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="9" t="s">
         <v>1</v>
       </c>
@@ -2186,10 +2233,10 @@
       <c r="O1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="92" t="s">
+      <c r="Q1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="92"/>
+      <c r="R1" s="94"/>
       <c r="S1" s="10" t="s">
         <v>1</v>
       </c>
@@ -2205,10 +2252,10 @@
       <c r="W1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="92" t="s">
+      <c r="Y1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="92"/>
+      <c r="Z1" s="94"/>
       <c r="AA1" s="10" t="s">
         <v>1</v>
       </c>
@@ -2225,8 +2272,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2235,230 +2282,230 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="83" t="s">
         <v>45</v>
       </c>
       <c r="L2" s="9"/>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="68"/>
+      <c r="S2" s="83"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="93" t="s">
+      <c r="U2" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="93" t="s">
+      <c r="V2" s="29"/>
+      <c r="W2" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="40" t="s">
+      <c r="Y2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="Z2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="68"/>
+      <c r="AA2" s="83"/>
       <c r="AB2" s="10"/>
-      <c r="AC2" s="40" t="s">
+      <c r="AC2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-    </row>
-    <row r="3" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+    </row>
+    <row r="3" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="65"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="I3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="67"/>
+      <c r="K3" s="66"/>
       <c r="L3" s="9"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
-      <c r="Q3" s="66"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="66"/>
+      <c r="Q3" s="65"/>
       <c r="R3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="67"/>
+      <c r="S3" s="66"/>
       <c r="T3" s="10"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="93"/>
-      <c r="Y3" s="66"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="100"/>
+      <c r="Y3" s="65"/>
       <c r="Z3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="67"/>
+      <c r="AA3" s="66"/>
       <c r="AB3" s="10"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="67"/>
-    </row>
-    <row r="4" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="66"/>
+    </row>
+    <row r="4" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="66"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="87" t="s">
+      <c r="L4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="66"/>
+      <c r="Q4" s="65"/>
       <c r="R4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="T4" s="87" t="s">
+      <c r="T4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="40" t="s">
+      <c r="U4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="V4" s="40"/>
-      <c r="W4" s="89" t="s">
+      <c r="V4" s="29"/>
+      <c r="W4" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="Y4" s="66"/>
+      <c r="Y4" s="65"/>
       <c r="Z4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="40" t="s">
+      <c r="AA4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="87" t="s">
+      <c r="AB4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" s="40" t="s">
+      <c r="AC4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AD4" s="40" t="s">
+      <c r="AD4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AE4" s="40" t="s">
+      <c r="AE4" s="29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
+    <row r="5" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="95"/>
-      <c r="I5" s="66"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="101"/>
+      <c r="I5" s="65"/>
       <c r="J5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="93"/>
-      <c r="Q5" s="66"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="100"/>
+      <c r="Q5" s="65"/>
       <c r="R5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="90"/>
-      <c r="Y5" s="66"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="98"/>
+      <c r="Y5" s="65"/>
       <c r="Z5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="67"/>
-    </row>
-    <row r="6" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="66"/>
+    </row>
+    <row r="6" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="66"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="67"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="94"/>
-      <c r="I6" s="67"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="102"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="42"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="4"/>
       <c r="M6" s="6"/>
       <c r="N6" s="4"/>
       <c r="O6" s="11"/>
-      <c r="Q6" s="67"/>
+      <c r="Q6" s="66"/>
       <c r="R6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2468,394 +2515,394 @@
       <c r="T6" s="4"/>
       <c r="U6" s="6"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="91"/>
-      <c r="Y6" s="67"/>
+      <c r="W6" s="99"/>
+      <c r="Y6" s="66"/>
       <c r="Z6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" s="42"/>
+      <c r="AA6" s="31"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="11"/>
     </row>
-    <row r="7" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="87" t="s">
+      <c r="L7" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="40" t="s">
+      <c r="M7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="87" t="s">
+      <c r="O7" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="40" t="s">
+      <c r="Q7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="R7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="40" t="s">
+      <c r="S7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="T7" s="87" t="s">
+      <c r="T7" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="40" t="s">
+      <c r="U7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="V7" s="40" t="s">
+      <c r="V7" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="W7" s="87" t="s">
+      <c r="W7" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="Y7" s="40" t="s">
+      <c r="Y7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="Z7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AA7" s="40" t="s">
+      <c r="AA7" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AB7" s="87" t="s">
+      <c r="AB7" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="AC7" s="40" t="s">
+      <c r="AC7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AD7" s="40" t="s">
+      <c r="AD7" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="AE7" s="87" t="s">
+      <c r="AE7" s="89" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+    <row r="8" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="65"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="41"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="87"/>
-      <c r="Q8" s="41"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="89"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="41"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="87"/>
-      <c r="Y8" s="41"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="89"/>
+      <c r="Y8" s="30"/>
       <c r="Z8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="41"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="87"/>
-    </row>
-    <row r="9" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="89"/>
+    </row>
+    <row r="9" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="89" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="I9" s="41"/>
+      <c r="G9" s="66"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="40" t="s">
+      <c r="K9" s="31"/>
+      <c r="L9" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="40" t="s">
+      <c r="M9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="29" t="s">
         <v>63</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="Q9" s="41"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="42"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="40" t="s">
+      <c r="S9" s="31"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="V9" s="40" t="s">
+      <c r="V9" s="29" t="s">
         <v>51</v>
       </c>
       <c r="W9" s="4"/>
-      <c r="Y9" s="41"/>
+      <c r="Y9" s="30"/>
       <c r="Z9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="40" t="s">
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AD9" s="40"/>
+      <c r="AD9" s="29"/>
       <c r="AE9" s="4"/>
     </row>
-    <row r="10" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+    <row r="10" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
       <c r="G10" s="8"/>
-      <c r="I10" s="42"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="9"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
       <c r="O10" s="9"/>
-      <c r="Q10" s="42"/>
+      <c r="Q10" s="31"/>
       <c r="R10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
       <c r="W10" s="10"/>
-      <c r="Y10" s="42"/>
+      <c r="Y10" s="31"/>
       <c r="Z10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="AA10" s="10"/>
       <c r="AB10" s="12"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="67"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
       <c r="AE10" s="10"/>
     </row>
-    <row r="11" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="29" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="43" t="s">
+      <c r="L11" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="89" t="s">
+      <c r="M11" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="40" t="s">
+      <c r="N11" s="29" t="s">
         <v>52</v>
       </c>
       <c r="O11" s="9"/>
-      <c r="Q11" s="40" t="s">
+      <c r="Q11" s="29" t="s">
         <v>19</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S11" s="40" t="s">
+      <c r="S11" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="T11" s="43" t="s">
+      <c r="T11" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="89" t="s">
+      <c r="U11" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="V11" s="40" t="s">
+      <c r="V11" s="29" t="s">
         <v>52</v>
       </c>
       <c r="W11" s="10"/>
-      <c r="Y11" s="40" t="s">
+      <c r="Y11" s="29" t="s">
         <v>19</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA11" s="40" t="s">
+      <c r="AA11" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AB11" s="43" t="s">
+      <c r="AB11" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="AC11" s="89" t="s">
+      <c r="AC11" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="AD11" s="40" t="s">
+      <c r="AD11" s="29" t="s">
         <v>52</v>
       </c>
       <c r="AE11" s="10"/>
     </row>
-    <row r="12" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
+    <row r="12" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="66"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="2"/>
-      <c r="I12" s="66"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="66"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="65"/>
       <c r="O12" s="9"/>
-      <c r="Q12" s="66"/>
+      <c r="Q12" s="65"/>
       <c r="R12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="66"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="66"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="65"/>
       <c r="W12" s="10"/>
-      <c r="Y12" s="66"/>
+      <c r="Y12" s="65"/>
       <c r="Z12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="66"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="65"/>
       <c r="AE12" s="10"/>
     </row>
-    <row r="13" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+    <row r="13" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="66"/>
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="67"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="2"/>
-      <c r="I13" s="67"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="67"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="67"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="66"/>
       <c r="O13" s="9"/>
-      <c r="Q13" s="67"/>
+      <c r="Q13" s="66"/>
       <c r="R13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S13" s="67"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="91"/>
-      <c r="V13" s="67"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="66"/>
       <c r="W13" s="10"/>
-      <c r="Y13" s="67"/>
+      <c r="Y13" s="66"/>
       <c r="Z13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="91"/>
-      <c r="AD13" s="67"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="66"/>
       <c r="AE13" s="10"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="92"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="14" t="s">
         <v>1</v>
       </c>
@@ -2871,10 +2918,10 @@
       <c r="G15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="58" t="s">
+      <c r="I15" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="59"/>
+      <c r="J15" s="56"/>
       <c r="K15" s="14" t="s">
         <v>1</v>
       </c>
@@ -2890,10 +2937,10 @@
       <c r="O15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="58" t="s">
+      <c r="Q15" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="R15" s="59"/>
+      <c r="R15" s="56"/>
       <c r="S15" s="14" t="s">
         <v>1</v>
       </c>
@@ -2909,10 +2956,10 @@
       <c r="W15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Y15" s="92" t="s">
+      <c r="Y15" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="Z15" s="92"/>
+      <c r="Z15" s="94"/>
       <c r="AA15" s="14" t="s">
         <v>1</v>
       </c>
@@ -2929,645 +2976,645 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="E16" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="84" t="s">
+      <c r="F16" s="29"/>
+      <c r="G16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="K16" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="68"/>
-      <c r="M16" s="96" t="s">
+      <c r="L16" s="83"/>
+      <c r="M16" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="40"/>
-      <c r="O16" s="84" t="s">
+      <c r="N16" s="29"/>
+      <c r="O16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="Q16" s="40" t="s">
+      <c r="Q16" s="29" t="s">
         <v>17</v>
       </c>
       <c r="R16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="S16" s="72" t="s">
+      <c r="S16" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="T16" s="68"/>
-      <c r="U16" s="96" t="s">
+      <c r="T16" s="83"/>
+      <c r="U16" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="V16" s="40"/>
-      <c r="W16" s="84" t="s">
+      <c r="V16" s="29"/>
+      <c r="W16" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="Y16" s="40" t="s">
+      <c r="Y16" s="29" t="s">
         <v>17</v>
       </c>
       <c r="Z16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AA16" s="72" t="s">
+      <c r="AA16" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="AB16" s="68" t="s">
+      <c r="AB16" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="AC16" s="96" t="s">
+      <c r="AC16" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="84" t="s">
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="73" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
+    <row r="17" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="65"/>
       <c r="B17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="73"/>
-      <c r="I17" s="41"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="72"/>
+      <c r="I17" s="30"/>
       <c r="J17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="73"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="79"/>
-      <c r="Q17" s="41"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="74"/>
+      <c r="Q17" s="30"/>
       <c r="R17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="S17" s="73"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="100"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="79"/>
-      <c r="Y17" s="66"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="74"/>
+      <c r="Y17" s="65"/>
       <c r="Z17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="73"/>
-    </row>
-    <row r="18" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="66"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="72"/>
+    </row>
+    <row r="18" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="65"/>
       <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="96" t="s">
+      <c r="F18" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="41"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="96" t="s">
+      <c r="K18" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="40" t="s">
+      <c r="L18" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="40" t="s">
+      <c r="M18" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="96" t="s">
+      <c r="N18" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="O18" s="38" t="s">
+      <c r="O18" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="Q18" s="41"/>
+      <c r="Q18" s="30"/>
       <c r="R18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S18" s="96" t="s">
+      <c r="S18" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="T18" s="40" t="s">
+      <c r="T18" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="U18" s="40" t="s">
+      <c r="U18" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="V18" s="96" t="s">
+      <c r="V18" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="W18" s="38" t="s">
+      <c r="W18" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="Y18" s="66"/>
+      <c r="Y18" s="65"/>
       <c r="Z18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AA18" s="28" t="s">
+      <c r="AA18" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="AB18" s="87" t="s">
+      <c r="AB18" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="AC18" s="40" t="s">
+      <c r="AC18" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AD18" s="96" t="s">
+      <c r="AD18" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="AE18" s="97" t="s">
+      <c r="AE18" s="92" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
+    <row r="19" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="65"/>
       <c r="B19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="98"/>
-      <c r="I19" s="41"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="93"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="101"/>
-      <c r="Q19" s="41"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="96"/>
+      <c r="Q19" s="30"/>
       <c r="R19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="S19" s="29"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="100"/>
-      <c r="W19" s="101"/>
-      <c r="Y19" s="66"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="96"/>
+      <c r="Y19" s="65"/>
       <c r="Z19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="98"/>
-    </row>
-    <row r="20" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="93"/>
+    </row>
+    <row r="20" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="66"/>
       <c r="B20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="4"/>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
       <c r="G20" s="11"/>
-      <c r="I20" s="42"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="30"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="4"/>
       <c r="M20" s="6"/>
       <c r="N20" s="4"/>
       <c r="O20" s="11"/>
-      <c r="Q20" s="42"/>
+      <c r="Q20" s="31"/>
       <c r="R20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S20" s="30"/>
+      <c r="S20" s="37"/>
       <c r="T20" s="4"/>
       <c r="U20" s="6"/>
       <c r="V20" s="4"/>
       <c r="W20" s="11"/>
-      <c r="Y20" s="67"/>
+      <c r="Y20" s="66"/>
       <c r="Z20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AA20" s="30"/>
+      <c r="AA20" s="37"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="11"/>
     </row>
-    <row r="21" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+    <row r="21" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="40" t="s">
+      <c r="F21" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="87" t="s">
+      <c r="G21" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="29" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="43" t="s">
+      <c r="K21" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="40" t="s">
+      <c r="M21" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="40" t="s">
+      <c r="N21" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="O21" s="40" t="s">
+      <c r="O21" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="40" t="s">
+      <c r="Q21" s="29" t="s">
         <v>18</v>
       </c>
       <c r="R21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S21" s="43" t="s">
+      <c r="S21" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="38" t="s">
+      <c r="T21" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="U21" s="40" t="s">
+      <c r="U21" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="V21" s="40" t="s">
+      <c r="V21" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="W21" s="40" t="s">
+      <c r="W21" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="Y21" s="40" t="s">
+      <c r="Y21" s="29" t="s">
         <v>18</v>
       </c>
       <c r="Z21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AA21" s="84" t="s">
+      <c r="AA21" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AB21" s="80" t="s">
+      <c r="AB21" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="AC21" s="40" t="s">
+      <c r="AC21" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AD21" s="40" t="s">
+      <c r="AD21" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="AE21" s="87" t="s">
+      <c r="AE21" s="89" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+    <row r="22" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
       <c r="B22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="87"/>
-      <c r="I22" s="41"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="89"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="78"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="Q22" s="41"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="Q22" s="30"/>
       <c r="R22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="S22" s="78"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="Y22" s="41"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="Y22" s="30"/>
       <c r="Z22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="67"/>
-      <c r="AE22" s="87"/>
-    </row>
-    <row r="23" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="89"/>
+    </row>
+    <row r="23" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
       <c r="B23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="40" t="s">
+      <c r="C23" s="74"/>
+      <c r="D23" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="40"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="4"/>
-      <c r="I23" s="41"/>
+      <c r="I23" s="30"/>
       <c r="J23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="79"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="40" t="s">
+      <c r="K23" s="74"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="N23" s="40"/>
+      <c r="N23" s="29"/>
       <c r="O23" s="4"/>
-      <c r="Q23" s="41"/>
+      <c r="Q23" s="30"/>
       <c r="R23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="S23" s="79"/>
-      <c r="T23" s="40" t="s">
+      <c r="S23" s="74"/>
+      <c r="T23" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="U23" s="40" t="s">
+      <c r="U23" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="V23" s="40"/>
+      <c r="V23" s="29"/>
       <c r="W23" s="4"/>
-      <c r="Y23" s="41"/>
+      <c r="Y23" s="30"/>
       <c r="Z23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="40" t="s">
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AC23" s="40" t="s">
+      <c r="AC23" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="40"/>
+      <c r="AD23" s="29"/>
       <c r="AE23" s="4"/>
     </row>
-    <row r="24" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+    <row r="24" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
       <c r="B24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="14"/>
-      <c r="I24" s="42"/>
+      <c r="I24" s="31"/>
       <c r="J24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="K24" s="14"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
       <c r="O24" s="14"/>
-      <c r="Q24" s="42"/>
+      <c r="Q24" s="31"/>
       <c r="R24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="S24" s="14"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
       <c r="W24" s="14"/>
-      <c r="Y24" s="42"/>
+      <c r="Y24" s="31"/>
       <c r="Z24" s="14" t="s">
         <v>14</v>
       </c>
       <c r="AA24" s="14"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="67"/>
-      <c r="AD24" s="67"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="66"/>
       <c r="AE24" s="14"/>
     </row>
-    <row r="25" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+    <row r="25" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="29" t="s">
         <v>65</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="I25" s="40" t="s">
+      <c r="I25" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="43" t="s">
+      <c r="L25" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="82" t="s">
+      <c r="M25" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="40" t="s">
+      <c r="N25" s="29" t="s">
         <v>77</v>
       </c>
       <c r="O25" s="14"/>
-      <c r="Q25" s="40" t="s">
+      <c r="Q25" s="29" t="s">
         <v>19</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S25" s="40" t="s">
+      <c r="S25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="T25" s="43" t="s">
+      <c r="T25" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="U25" s="82" t="s">
+      <c r="U25" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="V25" s="40" t="s">
+      <c r="V25" s="29" t="s">
         <v>44</v>
       </c>
       <c r="W25" s="14"/>
-      <c r="Y25" s="40" t="s">
+      <c r="Y25" s="29" t="s">
         <v>19</v>
       </c>
       <c r="Z25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA25" s="40" t="s">
+      <c r="AA25" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AB25" s="43" t="s">
+      <c r="AB25" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AC25" s="82" t="s">
+      <c r="AC25" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="AD25" s="40" t="s">
+      <c r="AD25" s="29" t="s">
         <v>65</v>
       </c>
       <c r="AE25" s="14"/>
     </row>
-    <row r="26" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
+    <row r="26" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="65"/>
       <c r="B26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="66"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="14"/>
-      <c r="I26" s="41"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="41"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="41"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="30"/>
       <c r="O26" s="14"/>
-      <c r="Q26" s="41"/>
+      <c r="Q26" s="30"/>
       <c r="R26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S26" s="41"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="41"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="30"/>
       <c r="W26" s="14"/>
-      <c r="Y26" s="66"/>
+      <c r="Y26" s="65"/>
       <c r="Z26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="88"/>
-      <c r="AD26" s="66"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="65"/>
       <c r="AE26" s="14"/>
     </row>
-    <row r="27" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
+    <row r="27" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="66"/>
       <c r="B27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="67"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="14"/>
-      <c r="I27" s="42"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K27" s="42"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="42"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="31"/>
       <c r="O27" s="14"/>
-      <c r="Q27" s="42"/>
+      <c r="Q27" s="31"/>
       <c r="R27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="S27" s="42"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="42"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="31"/>
       <c r="W27" s="14"/>
-      <c r="Y27" s="67"/>
+      <c r="Y27" s="66"/>
       <c r="Z27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="67"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="66"/>
       <c r="AE27" s="14"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A29" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="15" t="s">
         <v>1</v>
       </c>
@@ -3583,10 +3630,10 @@
       <c r="G29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="58" t="s">
+      <c r="I29" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J29" s="59"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="14" t="s">
         <v>1</v>
       </c>
@@ -3602,10 +3649,10 @@
       <c r="O29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="58" t="s">
+      <c r="Q29" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="R29" s="59"/>
+      <c r="R29" s="56"/>
       <c r="S29" s="15" t="s">
         <v>1</v>
       </c>
@@ -3621,10 +3668,10 @@
       <c r="W29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="58" t="s">
+      <c r="Y29" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Z29" s="59"/>
+      <c r="Z29" s="56"/>
       <c r="AA29" s="15" t="s">
         <v>1</v>
       </c>
@@ -3641,633 +3688,633 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+    <row r="30" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="62" t="s">
+      <c r="C30" s="71"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="84"/>
-      <c r="I30" s="40" t="s">
+      <c r="G30" s="73"/>
+      <c r="I30" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="72"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="104" t="s">
+      <c r="K30" s="71"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="N30" s="102" t="s">
+      <c r="N30" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="O30" s="84"/>
-      <c r="Q30" s="40" t="s">
+      <c r="O30" s="73"/>
+      <c r="Q30" s="29" t="s">
         <v>17</v>
       </c>
       <c r="R30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S30" s="72"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="62" t="s">
+      <c r="S30" s="71"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="V30" s="47" t="s">
+      <c r="V30" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="W30" s="84"/>
-      <c r="Y30" s="40" t="s">
+      <c r="W30" s="73"/>
+      <c r="Y30" s="29" t="s">
         <v>17</v>
       </c>
       <c r="Z30" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="68"/>
-      <c r="AC30" s="62" t="s">
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="83"/>
+      <c r="AC30" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="AD30" s="47" t="s">
+      <c r="AD30" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="AE30" s="84"/>
-    </row>
-    <row r="31" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="AE30" s="73"/>
+    </row>
+    <row r="31" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30"/>
       <c r="B31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="79"/>
-      <c r="I31" s="41"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="74"/>
+      <c r="I31" s="30"/>
       <c r="J31" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="73"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="79"/>
-      <c r="Q31" s="41"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="74"/>
+      <c r="Q31" s="30"/>
       <c r="R31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S31" s="73"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="79"/>
-      <c r="Y31" s="41"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="74"/>
+      <c r="Y31" s="30"/>
       <c r="Z31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AA31" s="73"/>
-      <c r="AB31" s="67"/>
-      <c r="AC31" s="64"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="79"/>
-    </row>
-    <row r="32" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="60"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="74"/>
+    </row>
+    <row r="32" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30"/>
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="41"/>
+      <c r="I32" s="30"/>
       <c r="J32" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="82" t="s">
+      <c r="K32" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="L32" s="40" t="s">
+      <c r="L32" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="M32" s="40" t="s">
+      <c r="M32" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="N32" s="104" t="s">
+      <c r="N32" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="71" t="s">
+      <c r="O32" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="Q32" s="41"/>
+      <c r="Q32" s="30"/>
       <c r="R32" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="S32" s="62" t="s">
+      <c r="S32" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="T32" s="40" t="s">
+      <c r="T32" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="U32" s="40" t="s">
+      <c r="U32" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="V32" s="62" t="s">
+      <c r="V32" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="W32" s="71" t="s">
+      <c r="W32" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="Y32" s="41"/>
+      <c r="Y32" s="30"/>
       <c r="Z32" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AA32" s="62" t="s">
+      <c r="AA32" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="AB32" s="76" t="s">
+      <c r="AB32" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="AC32" s="40" t="s">
+      <c r="AC32" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AD32" s="62" t="s">
+      <c r="AD32" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="AE32" s="71" t="s">
+      <c r="AE32" s="82" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+    <row r="33" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30"/>
       <c r="B33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="39"/>
-      <c r="I33" s="41"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="46"/>
+      <c r="I33" s="30"/>
       <c r="J33" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="88"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="39"/>
-      <c r="Q33" s="41"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="46"/>
+      <c r="Q33" s="30"/>
       <c r="R33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="S33" s="63"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="39"/>
-      <c r="Y33" s="41"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="46"/>
+      <c r="Y33" s="30"/>
       <c r="Z33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AA33" s="63"/>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="64"/>
-      <c r="AE33" s="39"/>
-    </row>
-    <row r="34" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="46"/>
+    </row>
+    <row r="34" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
       <c r="B34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="64"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="4"/>
       <c r="E34" s="6"/>
       <c r="F34" s="4"/>
       <c r="G34" s="11"/>
-      <c r="I34" s="42"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K34" s="83"/>
+      <c r="K34" s="78"/>
       <c r="L34" s="4"/>
       <c r="M34" s="6"/>
       <c r="N34" s="4"/>
       <c r="O34" s="11"/>
-      <c r="Q34" s="42"/>
+      <c r="Q34" s="31"/>
       <c r="R34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="S34" s="64"/>
+      <c r="S34" s="60"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="42"/>
+      <c r="U34" s="31"/>
       <c r="V34" s="4"/>
       <c r="W34" s="11"/>
-      <c r="Y34" s="42"/>
+      <c r="Y34" s="31"/>
       <c r="Z34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AA34" s="64"/>
+      <c r="AA34" s="60"/>
       <c r="AB34" s="4"/>
-      <c r="AC34" s="42"/>
+      <c r="AC34" s="31"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="11"/>
     </row>
-    <row r="35" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+    <row r="35" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="80" t="s">
+      <c r="D35" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="81" t="s">
+      <c r="E35" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="G35" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="40" t="s">
+      <c r="I35" s="29" t="s">
         <v>18</v>
       </c>
       <c r="J35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="43" t="s">
+      <c r="K35" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="L35" s="80" t="s">
+      <c r="L35" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="M35" s="40" t="s">
+      <c r="M35" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="N35" s="105" t="s">
+      <c r="N35" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="O35" s="102" t="s">
+      <c r="O35" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="Q35" s="40" t="s">
+      <c r="Q35" s="29" t="s">
         <v>18</v>
       </c>
       <c r="R35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="S35" s="43" t="s">
+      <c r="S35" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="T35" s="80" t="s">
+      <c r="T35" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="U35" s="81" t="s">
+      <c r="U35" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="V35" s="43" t="s">
+      <c r="V35" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="W35" s="47" t="s">
+      <c r="W35" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="Y35" s="40" t="s">
+      <c r="Y35" s="29" t="s">
         <v>18</v>
       </c>
       <c r="Z35" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AA35" s="43" t="s">
+      <c r="AA35" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="AB35" s="80" t="s">
+      <c r="AB35" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="AC35" s="81" t="s">
+      <c r="AC35" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="AD35" s="43" t="s">
+      <c r="AD35" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="AE35" s="47" t="s">
+      <c r="AE35" s="49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+    <row r="36" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="30"/>
       <c r="B36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="48"/>
-      <c r="I36" s="41"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="50"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="78"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="103"/>
-      <c r="Q36" s="41"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="85"/>
+      <c r="Q36" s="30"/>
       <c r="R36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S36" s="78"/>
-      <c r="T36" s="80"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="48"/>
-      <c r="Y36" s="41"/>
+      <c r="S36" s="81"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="50"/>
+      <c r="Y36" s="30"/>
       <c r="Z36" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AA36" s="78"/>
-      <c r="AB36" s="80"/>
-      <c r="AC36" s="64"/>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="48"/>
-    </row>
-    <row r="37" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+      <c r="AA36" s="81"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="50"/>
+    </row>
+    <row r="37" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="30"/>
       <c r="B37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="81" t="s">
+      <c r="C37" s="74"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="76" t="s">
+      <c r="F37" s="69" t="s">
         <v>83</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="I37" s="41"/>
+      <c r="I37" s="30"/>
       <c r="J37" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="79"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="40" t="s">
+      <c r="K37" s="74"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="N37" s="40" t="s">
+      <c r="N37" s="29" t="s">
         <v>83</v>
       </c>
       <c r="O37" s="4"/>
-      <c r="Q37" s="41"/>
+      <c r="Q37" s="30"/>
       <c r="R37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="S37" s="79"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="81" t="s">
+      <c r="S37" s="74"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="V37" s="76" t="s">
+      <c r="V37" s="69" t="s">
         <v>87</v>
       </c>
       <c r="W37" s="4"/>
-      <c r="Y37" s="41"/>
+      <c r="Y37" s="30"/>
       <c r="Z37" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AA37" s="79"/>
-      <c r="AB37" s="80"/>
-      <c r="AC37" s="81" t="s">
+      <c r="AA37" s="74"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="AD37" s="76"/>
+      <c r="AD37" s="69"/>
       <c r="AE37" s="4"/>
     </row>
-    <row r="38" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+    <row r="38" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31"/>
       <c r="B38" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="77"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="70"/>
       <c r="G38" s="15"/>
-      <c r="I38" s="42"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="14" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
       <c r="O38" s="14"/>
-      <c r="Q38" s="42"/>
+      <c r="Q38" s="31"/>
       <c r="R38" s="15" t="s">
         <v>14</v>
       </c>
       <c r="S38" s="15"/>
       <c r="T38" s="12"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="77"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="70"/>
       <c r="W38" s="15"/>
-      <c r="Y38" s="42"/>
+      <c r="Y38" s="31"/>
       <c r="Z38" s="15" t="s">
         <v>14</v>
       </c>
       <c r="AA38" s="15"/>
       <c r="AB38" s="12"/>
-      <c r="AC38" s="64"/>
-      <c r="AD38" s="77"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="70"/>
       <c r="AE38" s="15"/>
     </row>
-    <row r="39" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+    <row r="39" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="82" t="s">
+      <c r="E39" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="40" t="s">
+      <c r="F39" s="29" t="s">
         <v>65</v>
       </c>
       <c r="G39" s="15"/>
-      <c r="I39" s="40" t="s">
+      <c r="I39" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K39" s="40" t="s">
+      <c r="K39" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="L39" s="43" t="s">
+      <c r="L39" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="M39" s="82" t="s">
+      <c r="M39" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="N39" s="40" t="s">
+      <c r="N39" s="29" t="s">
         <v>77</v>
       </c>
       <c r="O39" s="14"/>
-      <c r="Q39" s="40" t="s">
+      <c r="Q39" s="29" t="s">
         <v>19</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S39" s="40" t="s">
+      <c r="S39" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="T39" s="43" t="s">
+      <c r="T39" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="U39" s="74" t="s">
+      <c r="U39" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="V39" s="40" t="s">
+      <c r="V39" s="29" t="s">
         <v>44</v>
       </c>
       <c r="W39" s="15"/>
-      <c r="Y39" s="40" t="s">
+      <c r="Y39" s="29" t="s">
         <v>19</v>
       </c>
       <c r="Z39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA39" s="40" t="s">
+      <c r="AA39" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AB39" s="43" t="s">
+      <c r="AB39" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="AC39" s="74" t="s">
+      <c r="AC39" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="AD39" s="43" t="s">
+      <c r="AD39" s="47" t="s">
         <v>54</v>
       </c>
       <c r="AE39" s="15"/>
     </row>
-    <row r="40" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+    <row r="40" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="30"/>
       <c r="B40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="66"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="66"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="65"/>
       <c r="G40" s="15"/>
-      <c r="I40" s="41"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="41"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="41"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="30"/>
       <c r="O40" s="14"/>
-      <c r="Q40" s="41"/>
+      <c r="Q40" s="30"/>
       <c r="R40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S40" s="66"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="74"/>
-      <c r="V40" s="66"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="65"/>
       <c r="W40" s="15"/>
-      <c r="Y40" s="41"/>
+      <c r="Y40" s="30"/>
       <c r="Z40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="44"/>
-      <c r="AC40" s="74"/>
-      <c r="AD40" s="44"/>
+      <c r="AA40" s="65"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="75"/>
+      <c r="AD40" s="67"/>
       <c r="AE40" s="15"/>
     </row>
-    <row r="41" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+    <row r="41" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31"/>
       <c r="B41" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="67"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="66"/>
       <c r="G41" s="15"/>
-      <c r="I41" s="42"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K41" s="42"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="42"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="31"/>
       <c r="O41" s="14"/>
-      <c r="Q41" s="42"/>
+      <c r="Q41" s="31"/>
       <c r="R41" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S41" s="67"/>
-      <c r="T41" s="45"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="48"/>
       <c r="U41" s="19"/>
-      <c r="V41" s="67"/>
+      <c r="V41" s="66"/>
       <c r="W41" s="15"/>
-      <c r="Y41" s="42"/>
+      <c r="Y41" s="31"/>
       <c r="Z41" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AA41" s="67"/>
-      <c r="AB41" s="45"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="48"/>
       <c r="AC41" s="19"/>
-      <c r="AD41" s="45"/>
+      <c r="AD41" s="48"/>
       <c r="AE41" s="15"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="58" t="s">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="59"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="15" t="s">
         <v>1</v>
       </c>
@@ -4283,10 +4330,10 @@
       <c r="G43" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="58" t="s">
+      <c r="I43" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="59"/>
+      <c r="J43" s="56"/>
       <c r="K43" s="15" t="s">
         <v>1</v>
       </c>
@@ -4302,10 +4349,10 @@
       <c r="O43" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Q43" s="58" t="s">
+      <c r="Q43" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="R43" s="59"/>
+      <c r="R43" s="56"/>
       <c r="S43" s="18" t="s">
         <v>1</v>
       </c>
@@ -4321,10 +4368,10 @@
       <c r="W43" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Y43" s="58" t="s">
+      <c r="Y43" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Z43" s="59"/>
+      <c r="Z43" s="56"/>
       <c r="AA43" s="18" t="s">
         <v>1</v>
       </c>
@@ -4341,641 +4388,641 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
+    <row r="44" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="62" t="s">
+      <c r="C44" s="71"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="47" t="s">
+      <c r="F44" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="84"/>
-      <c r="I44" s="40" t="s">
+      <c r="G44" s="73"/>
+      <c r="I44" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="72"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="62" t="s">
+      <c r="K44" s="71"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="N44" s="47" t="s">
+      <c r="N44" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="O44" s="84"/>
-      <c r="Q44" s="40" t="s">
+      <c r="O44" s="73"/>
+      <c r="Q44" s="29" t="s">
         <v>17</v>
       </c>
       <c r="R44" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="S44" s="72"/>
-      <c r="T44" s="68"/>
-      <c r="U44" s="62" t="s">
+      <c r="S44" s="71"/>
+      <c r="T44" s="83"/>
+      <c r="U44" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="V44" s="47" t="s">
+      <c r="V44" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="W44" s="84"/>
-      <c r="Y44" s="40" t="s">
+      <c r="W44" s="73"/>
+      <c r="Y44" s="29" t="s">
         <v>17</v>
       </c>
       <c r="Z44" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="38" t="s">
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="AC44" s="62" t="s">
+      <c r="AC44" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="AD44" s="47" t="s">
+      <c r="AD44" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="AE44" s="84"/>
-    </row>
-    <row r="45" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="AE44" s="73"/>
+    </row>
+    <row r="45" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="30"/>
       <c r="B45" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="79"/>
-      <c r="I45" s="41"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="74"/>
+      <c r="I45" s="30"/>
       <c r="J45" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K45" s="73"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="79"/>
-      <c r="Q45" s="41"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="74"/>
+      <c r="Q45" s="30"/>
       <c r="R45" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="S45" s="73"/>
-      <c r="T45" s="67"/>
-      <c r="U45" s="64"/>
-      <c r="V45" s="48"/>
-      <c r="W45" s="79"/>
-      <c r="Y45" s="41"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="60"/>
+      <c r="V45" s="50"/>
+      <c r="W45" s="74"/>
+      <c r="Y45" s="30"/>
       <c r="Z45" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AA45" s="73"/>
-      <c r="AB45" s="39"/>
-      <c r="AC45" s="64"/>
-      <c r="AD45" s="48"/>
-      <c r="AE45" s="79"/>
-    </row>
-    <row r="46" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
+      <c r="AA45" s="72"/>
+      <c r="AB45" s="46"/>
+      <c r="AC45" s="60"/>
+      <c r="AD45" s="50"/>
+      <c r="AE45" s="74"/>
+    </row>
+    <row r="46" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="30"/>
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="76" t="s">
+      <c r="D46" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="87" t="s">
+      <c r="E46" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="62" t="s">
+      <c r="F46" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="71" t="s">
+      <c r="G46" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="I46" s="41"/>
+      <c r="I46" s="30"/>
       <c r="J46" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="62" t="s">
+      <c r="K46" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="L46" s="40" t="s">
+      <c r="L46" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M46" s="40" t="s">
+      <c r="M46" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="N46" s="62" t="s">
+      <c r="N46" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="O46" s="71" t="s">
+      <c r="O46" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="Q46" s="41"/>
+      <c r="Q46" s="30"/>
       <c r="R46" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S46" s="62" t="s">
+      <c r="S46" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="T46" s="74" t="s">
+      <c r="T46" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="U46" s="40" t="s">
+      <c r="U46" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="V46" s="62" t="s">
+      <c r="V46" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="W46" s="38" t="s">
+      <c r="W46" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="Y46" s="41"/>
+      <c r="Y46" s="30"/>
       <c r="Z46" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AA46" s="62" t="s">
+      <c r="AA46" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="AB46" s="74" t="s">
+      <c r="AB46" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="AC46" s="40" t="s">
+      <c r="AC46" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="AD46" s="62" t="s">
+      <c r="AD46" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="AE46" s="71" t="s">
+      <c r="AE46" s="82" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+    <row r="47" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="30"/>
       <c r="B47" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="39"/>
-      <c r="I47" s="41"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="46"/>
+      <c r="I47" s="30"/>
       <c r="J47" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="63"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="39"/>
-      <c r="Q47" s="41"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="46"/>
+      <c r="Q47" s="30"/>
       <c r="R47" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="S47" s="63"/>
-      <c r="T47" s="74"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="64"/>
-      <c r="W47" s="39"/>
-      <c r="Y47" s="41"/>
+      <c r="S47" s="61"/>
+      <c r="T47" s="75"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="60"/>
+      <c r="W47" s="46"/>
+      <c r="Y47" s="30"/>
       <c r="Z47" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AA47" s="63"/>
-      <c r="AB47" s="74"/>
-      <c r="AC47" s="41"/>
-      <c r="AD47" s="64"/>
-      <c r="AE47" s="39"/>
-    </row>
-    <row r="48" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="AA47" s="61"/>
+      <c r="AB47" s="75"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="60"/>
+      <c r="AE47" s="46"/>
+    </row>
+    <row r="48" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="31"/>
       <c r="B48" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="64"/>
+      <c r="C48" s="60"/>
       <c r="D48" s="4"/>
       <c r="E48" s="12"/>
       <c r="F48" s="4"/>
       <c r="G48" s="11"/>
-      <c r="I48" s="42"/>
+      <c r="I48" s="31"/>
       <c r="J48" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="64"/>
+      <c r="K48" s="60"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="42"/>
+      <c r="M48" s="31"/>
       <c r="N48" s="4"/>
       <c r="O48" s="11"/>
-      <c r="Q48" s="42"/>
+      <c r="Q48" s="31"/>
       <c r="R48" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="S48" s="64"/>
+      <c r="S48" s="60"/>
       <c r="T48" s="4"/>
-      <c r="U48" s="42"/>
+      <c r="U48" s="31"/>
       <c r="V48" s="4"/>
       <c r="W48" s="11"/>
-      <c r="Y48" s="42"/>
+      <c r="Y48" s="31"/>
       <c r="Z48" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AA48" s="64"/>
+      <c r="AA48" s="60"/>
       <c r="AB48" s="4"/>
-      <c r="AC48" s="42"/>
+      <c r="AC48" s="31"/>
       <c r="AD48" s="4"/>
       <c r="AE48" s="11"/>
     </row>
-    <row r="49" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="40" t="s">
+    <row r="49" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="80" t="s">
+      <c r="D49" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="81" t="s">
+      <c r="E49" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="G49" s="47" t="s">
+      <c r="G49" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="I49" s="40" t="s">
+      <c r="I49" s="29" t="s">
         <v>18</v>
       </c>
       <c r="J49" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="43" t="s">
+      <c r="K49" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="L49" s="80" t="s">
+      <c r="L49" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="M49" s="81" t="s">
+      <c r="M49" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="N49" s="43" t="s">
+      <c r="N49" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="O49" s="47" t="s">
+      <c r="O49" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="Q49" s="40" t="s">
+      <c r="Q49" s="29" t="s">
         <v>18</v>
       </c>
       <c r="R49" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="S49" s="43" t="s">
+      <c r="S49" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="T49" s="38" t="s">
+      <c r="T49" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="U49" s="81" t="s">
+      <c r="U49" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="V49" s="43" t="s">
+      <c r="V49" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="W49" s="47" t="s">
+      <c r="W49" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="Y49" s="40" t="s">
+      <c r="Y49" s="29" t="s">
         <v>18</v>
       </c>
       <c r="Z49" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AA49" s="38" t="s">
+      <c r="AA49" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="AB49" s="69" t="s">
+      <c r="AB49" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="AC49" s="81" t="s">
+      <c r="AC49" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="AD49" s="43" t="s">
+      <c r="AD49" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="AE49" s="47" t="s">
+      <c r="AE49" s="49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+    <row r="50" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="30"/>
       <c r="B50" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="78"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="48"/>
-      <c r="I50" s="41"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="50"/>
+      <c r="I50" s="30"/>
       <c r="J50" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K50" s="78"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="67"/>
-      <c r="O50" s="48"/>
-      <c r="Q50" s="41"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="50"/>
+      <c r="Q50" s="30"/>
       <c r="R50" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S50" s="78"/>
-      <c r="T50" s="39"/>
-      <c r="U50" s="64"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="48"/>
-      <c r="Y50" s="41"/>
+      <c r="S50" s="81"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="60"/>
+      <c r="V50" s="66"/>
+      <c r="W50" s="50"/>
+      <c r="Y50" s="30"/>
       <c r="Z50" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="69"/>
-      <c r="AC50" s="64"/>
-      <c r="AD50" s="67"/>
-      <c r="AE50" s="48"/>
-    </row>
-    <row r="51" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+      <c r="AA50" s="46"/>
+      <c r="AB50" s="79"/>
+      <c r="AC50" s="60"/>
+      <c r="AD50" s="66"/>
+      <c r="AE50" s="50"/>
+    </row>
+    <row r="51" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="30"/>
       <c r="B51" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="81" t="s">
+      <c r="C51" s="74"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="85" t="s">
+      <c r="F51" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="G51" s="76" t="s">
+      <c r="G51" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="I51" s="41"/>
+      <c r="I51" s="30"/>
       <c r="J51" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="79"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="81" t="s">
+      <c r="K51" s="74"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N51" s="76" t="s">
+      <c r="N51" s="69" t="s">
         <v>96</v>
       </c>
       <c r="O51" s="4"/>
-      <c r="Q51" s="41"/>
+      <c r="Q51" s="30"/>
       <c r="R51" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S51" s="79"/>
-      <c r="T51" s="71" t="s">
+      <c r="S51" s="74"/>
+      <c r="T51" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="U51" s="81" t="s">
+      <c r="U51" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="V51" s="76" t="s">
+      <c r="V51" s="69" t="s">
         <v>96</v>
       </c>
       <c r="W51" s="4"/>
-      <c r="Y51" s="41"/>
+      <c r="Y51" s="30"/>
       <c r="Z51" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AA51" s="76" t="s">
+      <c r="AA51" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="AB51" s="69"/>
-      <c r="AC51" s="81" t="s">
+      <c r="AB51" s="79"/>
+      <c r="AC51" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="AD51" s="76" t="s">
+      <c r="AD51" s="69" t="s">
         <v>96</v>
       </c>
       <c r="AE51" s="4"/>
     </row>
-    <row r="52" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
+    <row r="52" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="31"/>
       <c r="B52" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="77"/>
-      <c r="I52" s="42"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="70"/>
+      <c r="I52" s="31"/>
       <c r="J52" s="15" t="s">
         <v>14</v>
       </c>
       <c r="K52" s="15"/>
       <c r="L52" s="12"/>
-      <c r="M52" s="64"/>
-      <c r="N52" s="77"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="70"/>
       <c r="O52" s="15"/>
-      <c r="Q52" s="42"/>
+      <c r="Q52" s="31"/>
       <c r="R52" s="18" t="s">
         <v>14</v>
       </c>
       <c r="S52" s="18"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="64"/>
-      <c r="V52" s="77"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="60"/>
+      <c r="V52" s="70"/>
       <c r="W52" s="18"/>
-      <c r="Y52" s="42"/>
+      <c r="Y52" s="31"/>
       <c r="Z52" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AA52" s="77"/>
+      <c r="AA52" s="70"/>
       <c r="AB52" s="22"/>
-      <c r="AC52" s="64"/>
-      <c r="AD52" s="77"/>
+      <c r="AC52" s="60"/>
+      <c r="AD52" s="70"/>
       <c r="AE52" s="18"/>
     </row>
-    <row r="53" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+    <row r="53" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="43" t="s">
+      <c r="C53" s="29"/>
+      <c r="D53" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="74" t="s">
+      <c r="E53" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="40" t="s">
+      <c r="F53" s="29" t="s">
         <v>44</v>
       </c>
       <c r="G53" s="15"/>
-      <c r="I53" s="40" t="s">
+      <c r="I53" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="40" t="s">
+      <c r="K53" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="L53" s="43" t="s">
+      <c r="L53" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="M53" s="82" t="s">
+      <c r="M53" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="N53" s="40" t="s">
+      <c r="N53" s="29" t="s">
         <v>44</v>
       </c>
       <c r="O53" s="15"/>
-      <c r="Q53" s="40" t="s">
+      <c r="Q53" s="29" t="s">
         <v>19</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S53" s="80" t="s">
+      <c r="S53" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="T53" s="43" t="s">
+      <c r="T53" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="U53" s="82" t="s">
+      <c r="U53" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="V53" s="40" t="s">
+      <c r="V53" s="29" t="s">
         <v>44</v>
       </c>
       <c r="W53" s="18"/>
-      <c r="Y53" s="40" t="s">
+      <c r="Y53" s="29" t="s">
         <v>19</v>
       </c>
       <c r="Z53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA53" s="80" t="s">
+      <c r="AA53" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="AB53" s="43" t="s">
+      <c r="AB53" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="AC53" s="82" t="s">
+      <c r="AC53" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="AD53" s="40" t="s">
+      <c r="AD53" s="29" t="s">
         <v>44</v>
       </c>
       <c r="AE53" s="18"/>
     </row>
-    <row r="54" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
+    <row r="54" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="30"/>
       <c r="B54" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="66"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="65"/>
       <c r="G54" s="15"/>
-      <c r="I54" s="41"/>
+      <c r="I54" s="30"/>
       <c r="J54" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K54" s="66"/>
-      <c r="L54" s="44"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="66"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="78"/>
+      <c r="N54" s="65"/>
       <c r="O54" s="15"/>
-      <c r="Q54" s="41"/>
+      <c r="Q54" s="30"/>
       <c r="R54" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="S54" s="80"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="88"/>
-      <c r="V54" s="66"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="77"/>
+      <c r="V54" s="65"/>
       <c r="W54" s="18"/>
-      <c r="Y54" s="41"/>
+      <c r="Y54" s="30"/>
       <c r="Z54" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AA54" s="80"/>
-      <c r="AB54" s="44"/>
-      <c r="AC54" s="88"/>
-      <c r="AD54" s="66"/>
+      <c r="AA54" s="68"/>
+      <c r="AB54" s="67"/>
+      <c r="AC54" s="77"/>
+      <c r="AD54" s="65"/>
       <c r="AE54" s="18"/>
     </row>
-    <row r="55" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
+    <row r="55" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="31"/>
       <c r="B55" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="45"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="48"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="67"/>
+      <c r="F55" s="66"/>
       <c r="G55" s="15"/>
-      <c r="I55" s="42"/>
+      <c r="I55" s="31"/>
       <c r="J55" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K55" s="67"/>
-      <c r="L55" s="45"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="48"/>
       <c r="M55" s="19"/>
-      <c r="N55" s="67"/>
+      <c r="N55" s="66"/>
       <c r="O55" s="15"/>
-      <c r="Q55" s="42"/>
+      <c r="Q55" s="31"/>
       <c r="R55" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="80"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="83"/>
-      <c r="V55" s="67"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="78"/>
+      <c r="V55" s="66"/>
       <c r="W55" s="18"/>
-      <c r="Y55" s="42"/>
+      <c r="Y55" s="31"/>
       <c r="Z55" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AA55" s="80"/>
-      <c r="AB55" s="45"/>
-      <c r="AC55" s="83"/>
-      <c r="AD55" s="67"/>
+      <c r="AA55" s="68"/>
+      <c r="AB55" s="48"/>
+      <c r="AC55" s="78"/>
+      <c r="AD55" s="66"/>
       <c r="AE55" s="18"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57" s="58" t="s">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A57" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="59"/>
+      <c r="B57" s="56"/>
       <c r="C57" s="18" t="s">
         <v>1</v>
       </c>
@@ -4991,10 +5038,10 @@
       <c r="G57" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="58" t="s">
+      <c r="I57" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J57" s="59"/>
+      <c r="J57" s="56"/>
       <c r="K57" s="21" t="s">
         <v>1</v>
       </c>
@@ -5010,10 +5057,10 @@
       <c r="O57" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="58" t="s">
+      <c r="Q57" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="R57" s="59"/>
+      <c r="R57" s="56"/>
       <c r="S57" s="21" t="s">
         <v>1</v>
       </c>
@@ -5029,10 +5076,10 @@
       <c r="W57" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Y57" s="58" t="s">
+      <c r="Y57" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Z57" s="59"/>
+      <c r="Z57" s="56"/>
       <c r="AA57" s="21" t="s">
         <v>1</v>
       </c>
@@ -5049,297 +5096,297 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40" t="s">
+    <row r="58" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="72"/>
-      <c r="D58" s="38" t="s">
+      <c r="C58" s="71"/>
+      <c r="D58" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E58" s="62" t="s">
+      <c r="E58" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="F58" s="47" t="s">
+      <c r="F58" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="G58" s="84"/>
-      <c r="I58" s="40" t="s">
+      <c r="G58" s="73"/>
+      <c r="I58" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J58" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K58" s="72" t="s">
+      <c r="K58" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="L58" s="38"/>
-      <c r="M58" s="62" t="s">
+      <c r="L58" s="45"/>
+      <c r="M58" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="N58" s="47" t="s">
+      <c r="N58" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="O58" s="72" t="s">
+      <c r="O58" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="Q58" s="40" t="s">
+      <c r="Q58" s="29" t="s">
         <v>17</v>
       </c>
       <c r="R58" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="S58" s="72" t="s">
+      <c r="S58" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="T58" s="38"/>
-      <c r="U58" s="62" t="s">
+      <c r="T58" s="45"/>
+      <c r="U58" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="V58" s="47" t="s">
+      <c r="V58" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="W58" s="72" t="s">
+      <c r="W58" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="Y58" s="40" t="s">
+      <c r="Y58" s="29" t="s">
         <v>17</v>
       </c>
       <c r="Z58" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AA58" s="60" t="s">
+      <c r="AA58" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="AB58" s="38"/>
-      <c r="AC58" s="62" t="s">
+      <c r="AB58" s="45"/>
+      <c r="AC58" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD58" s="47" t="s">
+      <c r="AD58" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="AE58" s="60" t="s">
+      <c r="AE58" s="57" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
+    <row r="59" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="30"/>
       <c r="B59" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="73"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="79"/>
-      <c r="I59" s="41"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="74"/>
+      <c r="I59" s="30"/>
       <c r="J59" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K59" s="73"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="48"/>
-      <c r="O59" s="73"/>
-      <c r="Q59" s="41"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="60"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="72"/>
+      <c r="Q59" s="30"/>
       <c r="R59" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="S59" s="73"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="64"/>
-      <c r="V59" s="48"/>
-      <c r="W59" s="73"/>
-      <c r="Y59" s="41"/>
+      <c r="S59" s="72"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="60"/>
+      <c r="V59" s="50"/>
+      <c r="W59" s="72"/>
+      <c r="Y59" s="30"/>
       <c r="Z59" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AA59" s="61"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="64"/>
-      <c r="AD59" s="48"/>
-      <c r="AE59" s="61"/>
-    </row>
-    <row r="60" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
+      <c r="AA59" s="58"/>
+      <c r="AB59" s="46"/>
+      <c r="AC59" s="60"/>
+      <c r="AD59" s="50"/>
+      <c r="AE59" s="58"/>
+    </row>
+    <row r="60" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="30"/>
       <c r="B60" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="62" t="s">
+      <c r="C60" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="D60" s="74" t="s">
+      <c r="D60" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E60" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F60" s="62" t="s">
+      <c r="F60" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="G60" s="106" t="s">
+      <c r="G60" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="I60" s="41"/>
+      <c r="I60" s="30"/>
       <c r="J60" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K60" s="62" t="s">
+      <c r="K60" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="L60" s="74" t="s">
+      <c r="L60" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="M60" s="40" t="s">
+      <c r="M60" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="N60" s="62" t="s">
+      <c r="N60" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="O60" s="38" t="s">
+      <c r="O60" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="Q60" s="41"/>
+      <c r="Q60" s="30"/>
       <c r="R60" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="S60" s="62" t="s">
+      <c r="S60" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="T60" s="74" t="s">
+      <c r="T60" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="U60" s="40" t="s">
+      <c r="U60" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="V60" s="62" t="s">
+      <c r="V60" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="W60" s="38" t="s">
+      <c r="W60" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="Y60" s="41"/>
+      <c r="Y60" s="30"/>
       <c r="Z60" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AA60" s="62" t="s">
+      <c r="AA60" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="AB60" s="65" t="s">
+      <c r="AB60" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="AC60" s="40" t="s">
+      <c r="AC60" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="AD60" s="62" t="s">
+      <c r="AD60" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AE60" s="38" t="s">
+      <c r="AE60" s="45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+    <row r="61" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="30"/>
       <c r="B61" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="63"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="107"/>
-      <c r="I61" s="41"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="64"/>
+      <c r="I61" s="30"/>
       <c r="J61" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K61" s="63"/>
-      <c r="L61" s="74"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="64"/>
-      <c r="O61" s="39"/>
-      <c r="Q61" s="41"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="46"/>
+      <c r="Q61" s="30"/>
       <c r="R61" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="S61" s="63"/>
-      <c r="T61" s="74"/>
-      <c r="U61" s="41"/>
-      <c r="V61" s="64"/>
-      <c r="W61" s="75"/>
-      <c r="Y61" s="41"/>
+      <c r="S61" s="61"/>
+      <c r="T61" s="75"/>
+      <c r="U61" s="30"/>
+      <c r="V61" s="60"/>
+      <c r="W61" s="105"/>
+      <c r="Y61" s="30"/>
       <c r="Z61" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AA61" s="63"/>
-      <c r="AB61" s="65"/>
-      <c r="AC61" s="41"/>
-      <c r="AD61" s="64"/>
-      <c r="AE61" s="39"/>
-    </row>
-    <row r="62" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+      <c r="AA61" s="61"/>
+      <c r="AB61" s="106"/>
+      <c r="AC61" s="30"/>
+      <c r="AD61" s="60"/>
+      <c r="AE61" s="46"/>
+    </row>
+    <row r="62" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="31"/>
       <c r="B62" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="64"/>
+      <c r="C62" s="60"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="42"/>
+      <c r="E62" s="31"/>
       <c r="F62" s="4"/>
       <c r="G62" s="11"/>
-      <c r="I62" s="42"/>
+      <c r="I62" s="31"/>
       <c r="J62" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K62" s="64"/>
+      <c r="K62" s="60"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="42"/>
+      <c r="M62" s="31"/>
       <c r="N62" s="4"/>
       <c r="O62" s="11"/>
-      <c r="Q62" s="42"/>
+      <c r="Q62" s="31"/>
       <c r="R62" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="S62" s="64"/>
+      <c r="S62" s="60"/>
       <c r="T62" s="4"/>
-      <c r="U62" s="42"/>
+      <c r="U62" s="31"/>
       <c r="V62" s="4"/>
       <c r="W62" s="11"/>
-      <c r="Y62" s="42"/>
+      <c r="Y62" s="31"/>
       <c r="Z62" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AA62" s="64"/>
+      <c r="AA62" s="60"/>
       <c r="AB62" s="4"/>
-      <c r="AC62" s="42"/>
+      <c r="AC62" s="31"/>
       <c r="AD62" s="4"/>
       <c r="AE62" s="11"/>
     </row>
-    <row r="63" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40" t="s">
+    <row r="63" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B63" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="D63" s="80" t="s">
+      <c r="D63" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="70" t="s">
+      <c r="F63" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G63" s="47" t="s">
+      <c r="G63" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="I63" s="40" t="s">
+      <c r="I63" s="29" t="s">
         <v>18</v>
       </c>
       <c r="J63" s="21" t="s">
@@ -5348,358 +5395,358 @@
       <c r="K63" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="L63" s="38" t="s">
+      <c r="L63" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="M63" s="43" t="s">
+      <c r="M63" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="N63" s="70" t="s">
+      <c r="N63" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="O63" s="47" t="s">
+      <c r="O63" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="Q63" s="40" t="s">
+      <c r="Q63" s="29" t="s">
         <v>18</v>
       </c>
       <c r="R63" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="S63" s="69" t="s">
+      <c r="S63" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="T63" s="38" t="s">
+      <c r="T63" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="U63" s="43" t="s">
+      <c r="U63" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="V63" s="70" t="s">
+      <c r="V63" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="W63" s="47" t="s">
+      <c r="W63" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="Y63" s="40" t="s">
+      <c r="Y63" s="29" t="s">
         <v>18</v>
       </c>
       <c r="Z63" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AA63" s="43" t="s">
+      <c r="AA63" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="AB63" s="38" t="s">
+      <c r="AB63" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="AC63" s="43" t="s">
+      <c r="AC63" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="AD63" s="43" t="s">
+      <c r="AD63" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="AE63" s="47" t="s">
+      <c r="AE63" s="49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
+    <row r="64" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="30"/>
       <c r="B64" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="48"/>
-      <c r="I64" s="41"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="50"/>
+      <c r="I64" s="30"/>
       <c r="J64" s="21" t="s">
         <v>12</v>
       </c>
       <c r="K64" s="54"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="70"/>
-      <c r="O64" s="48"/>
-      <c r="Q64" s="41"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="50"/>
+      <c r="Q64" s="30"/>
       <c r="R64" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S64" s="69"/>
-      <c r="T64" s="39"/>
-      <c r="U64" s="45"/>
-      <c r="V64" s="70"/>
-      <c r="W64" s="48"/>
-      <c r="Y64" s="41"/>
+      <c r="S64" s="79"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="48"/>
+      <c r="V64" s="41"/>
+      <c r="W64" s="50"/>
+      <c r="Y64" s="30"/>
       <c r="Z64" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AA64" s="44"/>
-      <c r="AB64" s="39"/>
-      <c r="AC64" s="45"/>
-      <c r="AD64" s="46"/>
-      <c r="AE64" s="48"/>
-    </row>
-    <row r="65" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
+      <c r="AA64" s="67"/>
+      <c r="AB64" s="46"/>
+      <c r="AC64" s="48"/>
+      <c r="AD64" s="87"/>
+      <c r="AE64" s="50"/>
+    </row>
+    <row r="65" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="30"/>
       <c r="B65" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="76" t="s">
+      <c r="C65" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="D65" s="80"/>
-      <c r="E65" s="43" t="s">
+      <c r="D65" s="68"/>
+      <c r="E65" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="F65" s="70"/>
+      <c r="F65" s="41"/>
       <c r="G65" s="4"/>
-      <c r="I65" s="41"/>
+      <c r="I65" s="30"/>
       <c r="J65" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K65" s="76" t="s">
+      <c r="K65" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="L65" s="71" t="s">
+      <c r="L65" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="M65" s="43" t="s">
+      <c r="M65" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="N65" s="70"/>
+      <c r="N65" s="41"/>
       <c r="O65" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="Q65" s="41"/>
+      <c r="Q65" s="30"/>
       <c r="R65" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="S65" s="69"/>
-      <c r="T65" s="71" t="s">
+      <c r="S65" s="79"/>
+      <c r="T65" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="U65" s="43" t="s">
+      <c r="U65" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="V65" s="70"/>
-      <c r="W65" s="68" t="s">
+      <c r="V65" s="41"/>
+      <c r="W65" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="Y65" s="41"/>
+      <c r="Y65" s="30"/>
       <c r="Z65" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AA65" s="45"/>
-      <c r="AB65" s="49" t="s">
+      <c r="AA65" s="48"/>
+      <c r="AB65" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="AC65" s="43" t="s">
+      <c r="AC65" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="AD65" s="51" t="s">
+      <c r="AD65" s="107" t="s">
         <v>126</v>
       </c>
       <c r="AE65" s="53" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+    <row r="66" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="31"/>
       <c r="B66" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="77"/>
+      <c r="C66" s="70"/>
       <c r="D66" s="22"/>
-      <c r="E66" s="45"/>
+      <c r="E66" s="48"/>
       <c r="F66" s="23"/>
       <c r="G66" s="18"/>
-      <c r="I66" s="42"/>
+      <c r="I66" s="31"/>
       <c r="J66" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K66" s="77"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="45"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="48"/>
       <c r="N66" s="23"/>
       <c r="O66" s="54"/>
-      <c r="Q66" s="42"/>
+      <c r="Q66" s="31"/>
       <c r="R66" s="21" t="s">
         <v>14</v>
       </c>
       <c r="S66" s="23"/>
-      <c r="T66" s="39"/>
-      <c r="U66" s="45"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="48"/>
       <c r="V66" s="23"/>
-      <c r="W66" s="67"/>
-      <c r="Y66" s="42"/>
+      <c r="W66" s="66"/>
+      <c r="Y66" s="31"/>
       <c r="Z66" s="21" t="s">
         <v>14</v>
       </c>
       <c r="AA66" s="23"/>
-      <c r="AB66" s="50"/>
-      <c r="AC66" s="45"/>
-      <c r="AD66" s="52"/>
+      <c r="AB66" s="52"/>
+      <c r="AC66" s="48"/>
+      <c r="AD66" s="108"/>
       <c r="AE66" s="54"/>
     </row>
-    <row r="67" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40" t="s">
+    <row r="67" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E67" s="28" t="s">
+      <c r="E67" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F67" s="55" t="s">
+      <c r="F67" s="32" t="s">
         <v>113</v>
       </c>
       <c r="G67" s="18"/>
-      <c r="I67" s="40" t="s">
+      <c r="I67" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K67" s="40" t="s">
+      <c r="K67" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="L67" s="43" t="s">
+      <c r="L67" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="M67" s="28" t="s">
+      <c r="M67" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="N67" s="55" t="s">
+      <c r="N67" s="32" t="s">
         <v>113</v>
       </c>
       <c r="O67" s="21"/>
-      <c r="Q67" s="40" t="s">
+      <c r="Q67" s="29" t="s">
         <v>19</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S67" s="40"/>
-      <c r="T67" s="43" t="s">
+      <c r="S67" s="29"/>
+      <c r="T67" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="U67" s="28" t="s">
+      <c r="U67" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="V67" s="40" t="s">
+      <c r="V67" s="29" t="s">
         <v>110</v>
       </c>
       <c r="W67" s="21"/>
-      <c r="Y67" s="40" t="s">
+      <c r="Y67" s="29" t="s">
         <v>19</v>
       </c>
       <c r="Z67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AA67" s="40" t="s">
+      <c r="AA67" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="AB67" s="55" t="s">
+      <c r="AB67" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="AC67" s="28" t="s">
+      <c r="AC67" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="AD67" s="55" t="s">
+      <c r="AD67" s="32" t="s">
         <v>122</v>
       </c>
       <c r="AE67" s="21"/>
     </row>
-    <row r="68" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
+    <row r="68" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="30"/>
       <c r="B68" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="66"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="56"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="33"/>
       <c r="G68" s="18"/>
-      <c r="I68" s="41"/>
+      <c r="I68" s="30"/>
       <c r="J68" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K68" s="66"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="56"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="33"/>
       <c r="O68" s="21"/>
-      <c r="Q68" s="41"/>
+      <c r="Q68" s="30"/>
       <c r="R68" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="S68" s="66"/>
-      <c r="T68" s="44"/>
-      <c r="U68" s="29"/>
-      <c r="V68" s="66"/>
+      <c r="S68" s="65"/>
+      <c r="T68" s="67"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="65"/>
       <c r="W68" s="21"/>
-      <c r="Y68" s="41"/>
+      <c r="Y68" s="30"/>
       <c r="Z68" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AA68" s="66"/>
-      <c r="AB68" s="56"/>
-      <c r="AC68" s="29"/>
-      <c r="AD68" s="56"/>
+      <c r="AA68" s="65"/>
+      <c r="AB68" s="33"/>
+      <c r="AC68" s="36"/>
+      <c r="AD68" s="33"/>
       <c r="AE68" s="21"/>
     </row>
-    <row r="69" spans="1:31" ht="41.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
+    <row r="69" spans="1:31" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="31"/>
       <c r="B69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="57"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="34"/>
       <c r="G69" s="18"/>
-      <c r="I69" s="42"/>
+      <c r="I69" s="31"/>
       <c r="J69" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="K69" s="67"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="57"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="34"/>
       <c r="O69" s="21"/>
-      <c r="Q69" s="42"/>
+      <c r="Q69" s="31"/>
       <c r="R69" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S69" s="67"/>
-      <c r="T69" s="45"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="67"/>
+      <c r="S69" s="66"/>
+      <c r="T69" s="48"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="66"/>
       <c r="W69" s="21"/>
-      <c r="Y69" s="42"/>
+      <c r="Y69" s="31"/>
       <c r="Z69" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AA69" s="67"/>
-      <c r="AB69" s="57"/>
-      <c r="AC69" s="30"/>
-      <c r="AD69" s="57"/>
+      <c r="AA69" s="66"/>
+      <c r="AB69" s="34"/>
+      <c r="AC69" s="37"/>
+      <c r="AD69" s="34"/>
       <c r="AE69" s="21"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A71" s="58" t="s">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A71" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="59"/>
+      <c r="B71" s="56"/>
       <c r="C71" s="21" t="s">
         <v>1</v>
       </c>
@@ -5715,10 +5762,10 @@
       <c r="G71" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="58" t="s">
+      <c r="I71" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="J71" s="59"/>
+      <c r="J71" s="56"/>
       <c r="K71" s="21" t="s">
         <v>1</v>
       </c>
@@ -5734,10 +5781,10 @@
       <c r="O71" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="Q71" s="58" t="s">
+      <c r="Q71" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="R71" s="59"/>
+      <c r="R71" s="56"/>
       <c r="S71" s="25" t="s">
         <v>1</v>
       </c>
@@ -5754,506 +5801,506 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40" t="s">
+    <row r="72" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="60" t="s">
+      <c r="C72" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="D72" s="38"/>
-      <c r="E72" s="62" t="s">
+      <c r="D72" s="45"/>
+      <c r="E72" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="F72" s="47" t="s">
+      <c r="F72" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="G72" s="60" t="s">
+      <c r="G72" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="I72" s="40" t="s">
+      <c r="I72" s="29" t="s">
         <v>17</v>
       </c>
       <c r="J72" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K72" s="60" t="s">
+      <c r="K72" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="L72" s="38"/>
-      <c r="M72" s="62" t="s">
+      <c r="L72" s="45"/>
+      <c r="M72" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="N72" s="47" t="s">
+      <c r="N72" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="O72" s="60" t="s">
+      <c r="O72" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="Q72" s="40" t="s">
+      <c r="Q72" s="29" t="s">
         <v>17</v>
       </c>
       <c r="R72" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="S72" s="60" t="s">
+      <c r="S72" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="T72" s="38"/>
-      <c r="U72" s="62" t="s">
+      <c r="T72" s="45"/>
+      <c r="U72" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="V72" s="47" t="s">
+      <c r="V72" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="W72" s="60" t="s">
+      <c r="W72" s="57" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
+    <row r="73" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="30"/>
       <c r="B73" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="61"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="61"/>
-      <c r="I73" s="41"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="58"/>
+      <c r="I73" s="30"/>
       <c r="J73" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K73" s="61"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="48"/>
-      <c r="O73" s="61"/>
-      <c r="Q73" s="41"/>
+      <c r="K73" s="58"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="60"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="58"/>
+      <c r="Q73" s="30"/>
       <c r="R73" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="S73" s="61"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="64"/>
-      <c r="V73" s="48"/>
-      <c r="W73" s="61"/>
-    </row>
-    <row r="74" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
+      <c r="S73" s="58"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="60"/>
+      <c r="V73" s="50"/>
+      <c r="W73" s="58"/>
+    </row>
+    <row r="74" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="30"/>
       <c r="B74" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="62" t="s">
+      <c r="C74" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="65" t="s">
+      <c r="D74" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="E74" s="37" t="s">
+      <c r="E74" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="F74" s="62" t="s">
+      <c r="F74" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="G74" s="38" t="s">
+      <c r="G74" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="I74" s="41"/>
+      <c r="I74" s="30"/>
       <c r="J74" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K74" s="62" t="s">
+      <c r="K74" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="L74" s="65" t="s">
+      <c r="L74" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="M74" s="31" t="s">
+      <c r="M74" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="N74" s="62" t="s">
+      <c r="N74" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="O74" s="38" t="s">
+      <c r="O74" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="Q74" s="41"/>
+      <c r="Q74" s="30"/>
       <c r="R74" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="S74" s="62" t="s">
+      <c r="S74" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="T74" s="70" t="s">
+      <c r="T74" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="U74" s="106" t="s">
+      <c r="U74" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="V74" s="62" t="s">
+      <c r="V74" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="W74" s="38" t="s">
+      <c r="W74" s="45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
+    <row r="75" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="30"/>
       <c r="B75" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="63"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="39"/>
-      <c r="I75" s="41"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="115"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="46"/>
+      <c r="I75" s="30"/>
       <c r="J75" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K75" s="63"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="64"/>
-      <c r="O75" s="39"/>
-      <c r="Q75" s="41"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="106"/>
+      <c r="M75" s="113"/>
+      <c r="N75" s="60"/>
+      <c r="O75" s="46"/>
+      <c r="Q75" s="30"/>
       <c r="R75" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="S75" s="63"/>
-      <c r="T75" s="70"/>
-      <c r="U75" s="108"/>
-      <c r="V75" s="64"/>
-      <c r="W75" s="39"/>
-    </row>
-    <row r="76" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
+      <c r="S75" s="61"/>
+      <c r="T75" s="41"/>
+      <c r="U75" s="63"/>
+      <c r="V75" s="60"/>
+      <c r="W75" s="46"/>
+    </row>
+    <row r="76" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="31"/>
       <c r="B76" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="64"/>
+      <c r="C76" s="60"/>
       <c r="D76" s="4"/>
       <c r="E76" s="12"/>
       <c r="F76" s="4"/>
       <c r="G76" s="11"/>
-      <c r="I76" s="42"/>
+      <c r="I76" s="31"/>
       <c r="J76" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K76" s="64"/>
+      <c r="K76" s="60"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="33"/>
+      <c r="M76" s="114"/>
       <c r="N76" s="4"/>
       <c r="O76" s="11"/>
-      <c r="Q76" s="42"/>
+      <c r="Q76" s="31"/>
       <c r="R76" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="S76" s="64"/>
+      <c r="S76" s="60"/>
       <c r="T76" s="4"/>
-      <c r="U76" s="107"/>
+      <c r="U76" s="64"/>
       <c r="V76" s="4"/>
       <c r="W76" s="11"/>
     </row>
-    <row r="77" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40" t="s">
+    <row r="77" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="E77" s="43" t="s">
+      <c r="E77" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="F77" s="43" t="s">
+      <c r="F77" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="G77" s="47" t="s">
+      <c r="G77" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="I77" s="40" t="s">
+      <c r="I77" s="29" t="s">
         <v>18</v>
       </c>
       <c r="J77" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K77" s="43" t="s">
+      <c r="K77" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="L77" s="38" t="s">
+      <c r="L77" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="M77" s="43" t="s">
+      <c r="M77" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="N77" s="43" t="s">
+      <c r="N77" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="O77" s="47" t="s">
+      <c r="O77" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="Q77" s="40" t="s">
+      <c r="Q77" s="29" t="s">
         <v>18</v>
       </c>
       <c r="R77" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="S77" s="112" t="s">
+      <c r="S77" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="T77" s="38" t="s">
+      <c r="T77" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="U77" s="43" t="s">
+      <c r="U77" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="V77" s="70" t="s">
+      <c r="V77" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="W77" s="47" t="s">
+      <c r="W77" s="49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
+    <row r="78" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="30"/>
       <c r="B78" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="44"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="48"/>
-      <c r="I78" s="41"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="50"/>
+      <c r="I78" s="30"/>
       <c r="J78" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="K78" s="44"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="46"/>
-      <c r="O78" s="48"/>
-      <c r="Q78" s="41"/>
+      <c r="K78" s="67"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="48"/>
+      <c r="N78" s="87"/>
+      <c r="O78" s="50"/>
+      <c r="Q78" s="30"/>
       <c r="R78" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="S78" s="113"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="45"/>
-      <c r="V78" s="70"/>
-      <c r="W78" s="48"/>
-    </row>
-    <row r="79" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
+      <c r="S78" s="43"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="48"/>
+      <c r="V78" s="41"/>
+      <c r="W78" s="50"/>
+    </row>
+    <row r="79" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="30"/>
       <c r="B79" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="45"/>
-      <c r="D79" s="49" t="s">
+      <c r="C79" s="48"/>
+      <c r="D79" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="43" t="s">
+      <c r="E79" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="F79" s="51" t="s">
+      <c r="F79" s="107" t="s">
         <v>126</v>
       </c>
       <c r="G79" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="I79" s="41"/>
+      <c r="I79" s="30"/>
       <c r="J79" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K79" s="45"/>
-      <c r="L79" s="49" t="s">
+      <c r="K79" s="48"/>
+      <c r="L79" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="M79" s="43" t="s">
+      <c r="M79" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="N79" s="51" t="s">
+      <c r="N79" s="107" t="s">
         <v>126</v>
       </c>
       <c r="O79" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="Q79" s="41"/>
+      <c r="Q79" s="30"/>
       <c r="R79" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="S79" s="114"/>
-      <c r="T79" s="49" t="s">
+      <c r="S79" s="44"/>
+      <c r="T79" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="U79" s="43" t="s">
+      <c r="U79" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="V79" s="70"/>
+      <c r="V79" s="41"/>
       <c r="W79" s="53" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+    <row r="80" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="31"/>
       <c r="B80" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C80" s="23"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="52"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="108"/>
       <c r="G80" s="54"/>
-      <c r="I80" s="42"/>
+      <c r="I80" s="31"/>
       <c r="J80" s="21" t="s">
         <v>14</v>
       </c>
       <c r="K80" s="23"/>
-      <c r="L80" s="50"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="52"/>
+      <c r="L80" s="52"/>
+      <c r="M80" s="48"/>
+      <c r="N80" s="108"/>
       <c r="O80" s="54"/>
-      <c r="Q80" s="42"/>
+      <c r="Q80" s="31"/>
       <c r="R80" s="25" t="s">
         <v>14</v>
       </c>
       <c r="S80" s="23"/>
-      <c r="T80" s="50"/>
-      <c r="U80" s="45"/>
+      <c r="T80" s="52"/>
+      <c r="U80" s="48"/>
       <c r="V80" s="27"/>
       <c r="W80" s="54"/>
     </row>
-    <row r="81" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="40" t="s">
+    <row r="81" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="C81" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="D81" s="55" t="s">
+      <c r="D81" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E81" s="28" t="s">
+      <c r="E81" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="F81" s="112" t="s">
         <v>122</v>
       </c>
       <c r="G81" s="21"/>
-      <c r="I81" s="40" t="s">
+      <c r="I81" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K81" s="37" t="s">
+      <c r="K81" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="L81" s="55" t="s">
+      <c r="L81" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="M81" s="28" t="s">
+      <c r="M81" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="N81" s="34" t="s">
+      <c r="N81" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="O81" s="40"/>
-      <c r="Q81" s="40" t="s">
+      <c r="O81" s="29"/>
+      <c r="Q81" s="29" t="s">
         <v>19</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>15</v>
       </c>
       <c r="S81" s="26"/>
-      <c r="T81" s="55" t="s">
+      <c r="T81" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="U81" s="28" t="s">
+      <c r="U81" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="V81" s="109" t="s">
+      <c r="V81" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="W81" s="40"/>
-    </row>
-    <row r="82" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
+      <c r="W81" s="29"/>
+    </row>
+    <row r="82" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="30"/>
       <c r="B82" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="35"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="32"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="113"/>
       <c r="G82" s="21"/>
-      <c r="I82" s="41"/>
+      <c r="I82" s="30"/>
       <c r="J82" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K82" s="37"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="41"/>
-      <c r="Q82" s="41"/>
+      <c r="K82" s="115"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="110"/>
+      <c r="O82" s="30"/>
+      <c r="Q82" s="30"/>
       <c r="R82" s="25" t="s">
         <v>16</v>
       </c>
       <c r="S82" s="26"/>
-      <c r="T82" s="56"/>
-      <c r="U82" s="29"/>
-      <c r="V82" s="110"/>
-      <c r="W82" s="41"/>
-    </row>
-    <row r="83" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="T82" s="33"/>
+      <c r="U82" s="36"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="30"/>
+    </row>
+    <row r="83" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="31"/>
       <c r="B83" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="36"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="33"/>
+      <c r="C83" s="111"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="114"/>
       <c r="G83" s="21"/>
-      <c r="I83" s="42"/>
+      <c r="I83" s="31"/>
       <c r="J83" s="21" t="s">
         <v>37</v>
       </c>
       <c r="K83" s="12"/>
-      <c r="L83" s="57"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="42"/>
-      <c r="Q83" s="42"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="111"/>
+      <c r="O83" s="31"/>
+      <c r="Q83" s="31"/>
       <c r="R83" s="25" t="s">
         <v>37</v>
       </c>
       <c r="S83" s="12"/>
-      <c r="T83" s="57"/>
-      <c r="U83" s="30"/>
-      <c r="V83" s="111"/>
-      <c r="W83" s="42"/>
-    </row>
-    <row r="86" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T83" s="34"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="31"/>
+    </row>
+    <row r="86" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>132</v>
       </c>
@@ -6279,142 +6326,614 @@
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D88" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="G88" s="115" t="s">
+      <c r="D88" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G88" s="28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D89" s="115" t="s">
-        <v>152</v>
-      </c>
-      <c r="E89" s="115" t="s">
+      <c r="D89" s="28"/>
+      <c r="E89" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F89" s="115" t="s">
-        <v>158</v>
-      </c>
-      <c r="G89" s="115" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G89" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D90" s="115" t="s">
+      <c r="D90" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E90" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G90" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E90" s="1" t="s">
+    </row>
+    <row r="91" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F90" s="115" t="s">
+      <c r="D91" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E91" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="G90" s="115" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D91" s="115" t="s">
-        <v>155</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F91" s="115" t="s">
-        <v>159</v>
-      </c>
-      <c r="G91" s="115" t="s">
-        <v>161</v>
+      <c r="F91" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G91" s="28" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E92" s="115" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="C92" s="116" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="589">
-    <mergeCell ref="Q81:Q83"/>
-    <mergeCell ref="T81:T83"/>
-    <mergeCell ref="U81:U83"/>
-    <mergeCell ref="V81:V83"/>
-    <mergeCell ref="W81:W83"/>
-    <mergeCell ref="V77:V79"/>
-    <mergeCell ref="Q77:Q80"/>
-    <mergeCell ref="S77:S79"/>
-    <mergeCell ref="T77:T78"/>
-    <mergeCell ref="U77:U78"/>
-    <mergeCell ref="W77:W78"/>
-    <mergeCell ref="T79:T80"/>
-    <mergeCell ref="U79:U80"/>
-    <mergeCell ref="W79:W80"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="Q72:Q76"/>
-    <mergeCell ref="S72:S73"/>
-    <mergeCell ref="T72:T73"/>
-    <mergeCell ref="U72:U73"/>
-    <mergeCell ref="V72:V73"/>
-    <mergeCell ref="W72:W73"/>
-    <mergeCell ref="S74:S76"/>
-    <mergeCell ref="T74:T75"/>
-    <mergeCell ref="U74:U76"/>
-    <mergeCell ref="V74:V75"/>
-    <mergeCell ref="W74:W75"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="M74:M76"/>
+    <mergeCell ref="N81:N83"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="I77:I80"/>
+    <mergeCell ref="K77:K79"/>
+    <mergeCell ref="L77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:N78"/>
+    <mergeCell ref="O77:O78"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="O81:O83"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I72:I76"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="K74:K76"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="L81:L83"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="AA67:AA69"/>
+    <mergeCell ref="AB67:AB69"/>
+    <mergeCell ref="AC67:AC69"/>
+    <mergeCell ref="AD67:AD69"/>
+    <mergeCell ref="AD63:AD64"/>
+    <mergeCell ref="AD65:AD66"/>
+    <mergeCell ref="AA63:AA65"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="AB63:AB64"/>
+    <mergeCell ref="AC63:AC64"/>
+    <mergeCell ref="AE63:AE64"/>
+    <mergeCell ref="AB65:AB66"/>
+    <mergeCell ref="AC65:AC66"/>
+    <mergeCell ref="AE65:AE66"/>
+    <mergeCell ref="AA58:AA59"/>
+    <mergeCell ref="AB58:AB59"/>
+    <mergeCell ref="AC58:AC59"/>
+    <mergeCell ref="AD58:AD59"/>
+    <mergeCell ref="AE58:AE59"/>
+    <mergeCell ref="AA60:AA62"/>
+    <mergeCell ref="AB60:AB61"/>
+    <mergeCell ref="AC60:AC62"/>
+    <mergeCell ref="AD60:AD61"/>
+    <mergeCell ref="AE60:AE61"/>
+    <mergeCell ref="Q67:Q69"/>
+    <mergeCell ref="S67:S69"/>
+    <mergeCell ref="T67:T69"/>
+    <mergeCell ref="U67:U69"/>
+    <mergeCell ref="V67:V69"/>
+    <mergeCell ref="W65:W66"/>
+    <mergeCell ref="S63:S65"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="Y57:Z57"/>
+    <mergeCell ref="Y58:Y62"/>
+    <mergeCell ref="Y63:Y66"/>
+    <mergeCell ref="Y67:Y69"/>
+    <mergeCell ref="Q63:Q66"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="V63:V65"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="Q58:Q62"/>
+    <mergeCell ref="S58:S59"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="U58:U59"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="W58:W59"/>
+    <mergeCell ref="S60:S62"/>
+    <mergeCell ref="T60:T61"/>
+    <mergeCell ref="U60:U62"/>
+    <mergeCell ref="V60:V61"/>
+    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N65"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="M67:M69"/>
+    <mergeCell ref="N67:N69"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="K60:K62"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M62"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="I49:I52"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N55"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M48"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="AA35:AA37"/>
+    <mergeCell ref="AB35:AB37"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="AE35:AE36"/>
+    <mergeCell ref="AC37:AC38"/>
+    <mergeCell ref="AD37:AD38"/>
+    <mergeCell ref="Y39:Y41"/>
+    <mergeCell ref="AA39:AA41"/>
+    <mergeCell ref="AB39:AB41"/>
+    <mergeCell ref="AC39:AC40"/>
+    <mergeCell ref="AD39:AD41"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AB30:AB31"/>
+    <mergeCell ref="AC30:AC31"/>
+    <mergeCell ref="AD30:AD31"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AA32:AA34"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AC32:AC34"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Y34"/>
+    <mergeCell ref="Y35:Y38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="Q39:Q41"/>
+    <mergeCell ref="S39:S41"/>
+    <mergeCell ref="T39:T41"/>
+    <mergeCell ref="V39:V41"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:Q34"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="N11:N13"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="Q2:Q6"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="T7:T9"/>
+    <mergeCell ref="Y2:Y6"/>
+    <mergeCell ref="Y7:Y10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:I20"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:Q20"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="V25:V27"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="AA18:AA20"/>
+    <mergeCell ref="AB18:AB19"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Y20"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AE21:AE22"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="Y25:Y27"/>
+    <mergeCell ref="AA25:AA27"/>
+    <mergeCell ref="AB25:AB27"/>
+    <mergeCell ref="AC25:AC27"/>
+    <mergeCell ref="AD25:AD27"/>
+    <mergeCell ref="Y21:Y24"/>
+    <mergeCell ref="AA21:AA23"/>
+    <mergeCell ref="AB21:AB22"/>
+    <mergeCell ref="AC21:AC22"/>
+    <mergeCell ref="AD21:AD22"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:I34"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="S46:S48"/>
+    <mergeCell ref="U46:U48"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="W46:W47"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="N39:N41"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="Q35:Q38"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="V53:V55"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="T51:T52"/>
+    <mergeCell ref="U53:U55"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:Q48"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="AE49:AE50"/>
+    <mergeCell ref="AC51:AC52"/>
+    <mergeCell ref="AD51:AD52"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="Y44:Y48"/>
+    <mergeCell ref="AA44:AA45"/>
+    <mergeCell ref="AB44:AB45"/>
+    <mergeCell ref="AC44:AC45"/>
+    <mergeCell ref="AD44:AD45"/>
+    <mergeCell ref="AE44:AE45"/>
+    <mergeCell ref="AA46:AA48"/>
+    <mergeCell ref="AB46:AB47"/>
+    <mergeCell ref="AC46:AC48"/>
+    <mergeCell ref="AD46:AD47"/>
+    <mergeCell ref="AE46:AE47"/>
     <mergeCell ref="Y53:Y55"/>
     <mergeCell ref="AA53:AA55"/>
     <mergeCell ref="AB53:AB55"/>
@@ -6439,521 +6958,56 @@
     <mergeCell ref="T53:T55"/>
     <mergeCell ref="A49:A52"/>
     <mergeCell ref="C49:C51"/>
-    <mergeCell ref="AE49:AE50"/>
-    <mergeCell ref="AC51:AC52"/>
-    <mergeCell ref="AD51:AD52"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="Y44:Y48"/>
-    <mergeCell ref="AA44:AA45"/>
-    <mergeCell ref="AB44:AB45"/>
-    <mergeCell ref="AC44:AC45"/>
-    <mergeCell ref="AD44:AD45"/>
-    <mergeCell ref="AE44:AE45"/>
-    <mergeCell ref="AA46:AA48"/>
-    <mergeCell ref="AB46:AB47"/>
-    <mergeCell ref="AC46:AC48"/>
-    <mergeCell ref="AD46:AD47"/>
-    <mergeCell ref="AE46:AE47"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="V53:V55"/>
-    <mergeCell ref="T49:T50"/>
-    <mergeCell ref="T51:T52"/>
-    <mergeCell ref="U53:U55"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:Q48"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="S46:S48"/>
-    <mergeCell ref="U46:U48"/>
-    <mergeCell ref="V46:V47"/>
-    <mergeCell ref="W46:W47"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="M39:M41"/>
-    <mergeCell ref="N39:N41"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="Q35:Q38"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:I34"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="AE21:AE22"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="Y25:Y27"/>
-    <mergeCell ref="AA25:AA27"/>
-    <mergeCell ref="AB25:AB27"/>
-    <mergeCell ref="AC25:AC27"/>
-    <mergeCell ref="AD25:AD27"/>
-    <mergeCell ref="Y21:Y24"/>
-    <mergeCell ref="AA21:AA23"/>
-    <mergeCell ref="AB21:AB22"/>
-    <mergeCell ref="AC21:AC22"/>
-    <mergeCell ref="AD21:AD22"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="AA18:AA20"/>
-    <mergeCell ref="AB18:AB19"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AD18:AD19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Y20"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="V25:V27"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:Q20"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:I20"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="Q2:Q6"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="T7:T9"/>
-    <mergeCell ref="Y2:Y6"/>
-    <mergeCell ref="Y7:Y10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="N11:N13"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:Q34"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y30:Y34"/>
-    <mergeCell ref="Y35:Y38"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="Q39:Q41"/>
-    <mergeCell ref="S39:S41"/>
-    <mergeCell ref="T39:T41"/>
-    <mergeCell ref="V39:V41"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="AC30:AC31"/>
-    <mergeCell ref="AD30:AD31"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AA32:AA34"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="AC32:AC34"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AA35:AA37"/>
-    <mergeCell ref="AB35:AB37"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="AE35:AE36"/>
-    <mergeCell ref="AC37:AC38"/>
-    <mergeCell ref="AD37:AD38"/>
-    <mergeCell ref="Y39:Y41"/>
-    <mergeCell ref="AA39:AA41"/>
-    <mergeCell ref="AB39:AB41"/>
-    <mergeCell ref="AC39:AC40"/>
-    <mergeCell ref="AD39:AD41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M48"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="I49:I52"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="L49:L51"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N55"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="M67:M69"/>
-    <mergeCell ref="N67:N69"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="K60:K62"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M62"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="V58:V59"/>
-    <mergeCell ref="W58:W59"/>
-    <mergeCell ref="S60:S62"/>
-    <mergeCell ref="T60:T61"/>
-    <mergeCell ref="U60:U62"/>
-    <mergeCell ref="V60:V61"/>
-    <mergeCell ref="W60:W61"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N65"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="Q67:Q69"/>
-    <mergeCell ref="S67:S69"/>
-    <mergeCell ref="T67:T69"/>
-    <mergeCell ref="U67:U69"/>
-    <mergeCell ref="V67:V69"/>
-    <mergeCell ref="W65:W66"/>
-    <mergeCell ref="S63:S65"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="Y57:Z57"/>
-    <mergeCell ref="Y58:Y62"/>
-    <mergeCell ref="Y63:Y66"/>
-    <mergeCell ref="Y67:Y69"/>
-    <mergeCell ref="Q63:Q66"/>
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="V63:V65"/>
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="Q58:Q62"/>
-    <mergeCell ref="S58:S59"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="U58:U59"/>
-    <mergeCell ref="AE63:AE64"/>
-    <mergeCell ref="AB65:AB66"/>
-    <mergeCell ref="AC65:AC66"/>
-    <mergeCell ref="AE65:AE66"/>
-    <mergeCell ref="AA58:AA59"/>
-    <mergeCell ref="AB58:AB59"/>
-    <mergeCell ref="AC58:AC59"/>
-    <mergeCell ref="AD58:AD59"/>
-    <mergeCell ref="AE58:AE59"/>
-    <mergeCell ref="AA60:AA62"/>
-    <mergeCell ref="AB60:AB61"/>
-    <mergeCell ref="AC60:AC62"/>
-    <mergeCell ref="AD60:AD61"/>
-    <mergeCell ref="AE60:AE61"/>
-    <mergeCell ref="AA67:AA69"/>
-    <mergeCell ref="AB67:AB69"/>
-    <mergeCell ref="AC67:AC69"/>
-    <mergeCell ref="AD67:AD69"/>
-    <mergeCell ref="AD63:AD64"/>
-    <mergeCell ref="AD65:AD66"/>
-    <mergeCell ref="AA63:AA65"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="AB63:AB64"/>
-    <mergeCell ref="AC63:AC64"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I72:I76"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="K74:K76"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="L81:L83"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="M74:M76"/>
-    <mergeCell ref="N81:N83"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="O74:O75"/>
-    <mergeCell ref="I77:I80"/>
-    <mergeCell ref="K77:K79"/>
-    <mergeCell ref="L77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:N78"/>
-    <mergeCell ref="O77:O78"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="O81:O83"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="Q72:Q76"/>
+    <mergeCell ref="S72:S73"/>
+    <mergeCell ref="T72:T73"/>
+    <mergeCell ref="U72:U73"/>
+    <mergeCell ref="V72:V73"/>
+    <mergeCell ref="W72:W73"/>
+    <mergeCell ref="S74:S76"/>
+    <mergeCell ref="T74:T75"/>
+    <mergeCell ref="U74:U76"/>
+    <mergeCell ref="V74:V75"/>
+    <mergeCell ref="W74:W75"/>
+    <mergeCell ref="Q81:Q83"/>
+    <mergeCell ref="T81:T83"/>
+    <mergeCell ref="U81:U83"/>
+    <mergeCell ref="V81:V83"/>
+    <mergeCell ref="W81:W83"/>
+    <mergeCell ref="V77:V79"/>
+    <mergeCell ref="Q77:Q80"/>
+    <mergeCell ref="S77:S79"/>
+    <mergeCell ref="T77:T78"/>
+    <mergeCell ref="U77:U78"/>
+    <mergeCell ref="W77:W78"/>
+    <mergeCell ref="T79:T80"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="W79:W80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
